--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="stg_cap_titulo_mvmto" sheetId="33" r:id="rId2"/>
     <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId3"/>
     <sheet name="stg_cap_titulo" sheetId="95" r:id="rId4"/>
+    <sheet name="stg_cap_reembolso" sheetId="96" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="431">
   <si>
     <t>1</t>
   </si>
@@ -50,9 +51,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>tfacp2520m000</t>
   </si>
   <si>
     <t>CD_TIPO_PAGAMENTO</t>
@@ -1143,12 +1141,229 @@
   <si>
     <t>Pegar a informação da coluna Valor</t>
   </si>
+  <si>
+    <t>Usando como base o Tipo de Transação e Nr Documento [segunda e terceira informação da coluna No Documento], pegar a informação da coluna Referência Fiscal</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se estiver nulo, a view está buscando a informação Valor da sessão tfacp2520m000</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento da linha selecionada. No cabeçalho da tela, pegar a informação do Aprovado para pagamento.
+Se estiver com Não ou Não aplicável será 2. Se tiver como sim, será 1</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento. Pegar a informação da coluna Status do Pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Não aplicável
+2-Aberto
+3-Selecionado
+4-Parcialmente pago
+5-Pago
+</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Status da Fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Registrado
+2-Transações inseridas
+3-Relacionado
+4-Aprovado
+</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna Documento Original</t>
+  </si>
+  <si>
+    <t>1-NF
+2-NFF
+3-FAT
+4-NC
+5-ND
+6-NFE
+7-RPA
+8-Conhecimento
+9-NFS
+10-NFFS
+80-Outros</t>
+  </si>
+  <si>
+    <t>Pegar informação da coluna Valor do Saldo [BRL]</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento e na sequência, detalhar a linha apresentada. Na aba Geral, pegar a primeira informação apresentada no campo Banco do Fornecedor</t>
+  </si>
+  <si>
+    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco Oficial. Pegar a informação da coluna Agência</t>
+  </si>
+  <si>
+    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco Oficial. Pegar a informação da coluna DAC Agência</t>
+  </si>
+  <si>
+    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco e pedir o seu detalhamento.  Na aba Detalhes,  seção Detalhes do Banco Pegar a primeira informação do campo Conta Bancária</t>
+  </si>
+  <si>
+    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco e pedir o seu detalhamento.  Na aba Detalhes,  seção Detalhes do Banco Pegar a segunda informação do campo Conta Bancária</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências,Documentos relacionados ao pagamento por entrada aberto. Selecionar a linha apresentada e no menu Referências, pedir Detalhes.
+Na aba Valor, pegar a informação de Multa por atraso de Pagamento</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento. Pegar a informação da coluna Valor Taxa/Juros</t>
+  </si>
+  <si>
+    <t>Segundo o Fábio da INFOR, essa informação não virá nesta base, pois aqui só conseguimos tratar os dados de Atacado e Varejo</t>
+  </si>
+  <si>
+    <t>Sessão tfacp2520m000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0511m000</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0510m000</t>
+  </si>
+  <si>
+    <t>tfacp2520m000, tfcmg0511m000, tfcmg0510m000, tdrecl504m00l</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m00l</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_titulo_reembolso</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_VENDA_ORIGINAL</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO_LOJA</t>
+  </si>
+  <si>
+    <t>CD_UNIDADE_NEGOCIO</t>
+  </si>
+  <si>
+    <t>NR_ID_TITULO</t>
+  </si>
+  <si>
+    <t>PRB3</t>
+  </si>
+  <si>
+    <t>V20006296</t>
+  </si>
+  <si>
+    <t>042186822</t>
+  </si>
+  <si>
+    <t>000002665</t>
+  </si>
+  <si>
+    <t>PRB4</t>
+  </si>
+  <si>
+    <t>V20006298</t>
+  </si>
+  <si>
+    <t>042186823</t>
+  </si>
+  <si>
+    <t>PRB5</t>
+  </si>
+  <si>
+    <t>V20006300</t>
+  </si>
+  <si>
+    <t>042186824</t>
+  </si>
+  <si>
+    <t>PRB6</t>
+  </si>
+  <si>
+    <t>V20006302</t>
+  </si>
+  <si>
+    <t>042186825</t>
+  </si>
+  <si>
+    <t>PRB7</t>
+  </si>
+  <si>
+    <t>V20006304</t>
+  </si>
+  <si>
+    <t>042186826</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>V20005985</t>
+  </si>
+  <si>
+    <t>042186998</t>
+  </si>
+  <si>
+    <t>PRB2</t>
+  </si>
+  <si>
+    <t>V20005986</t>
+  </si>
+  <si>
+    <t>042186999</t>
+  </si>
+  <si>
+    <t>Fixo 201</t>
+  </si>
+  <si>
+    <t>Pegar a informação de Unidade de Negócio no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Trabalharemos somente com Tipo Interface = Meios de Pagamento e com Tipo de Transação = DEV, LPV e PRB</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tipo de Interface</t>
+  </si>
+  <si>
+    <t>Pegar as informações da coluna Tipo de Interface + Documento</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Pedido do Cliente</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Documento</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Parceiro de Negócios</t>
+  </si>
+  <si>
+    <t>znslsc530m000, znslsc501m000</t>
+  </si>
+  <si>
+    <t>Sessão znslsc530m000</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000</t>
+  </si>
+  <si>
+    <t>Na lupinha informar a Cia, Unid Negócio e Pedido Cliente. Na tela, pedir o detalhamento da linha apresentada.
+Na aba Geral, seção Ordem. Pegar a informação de Ordem de Venda LN</t>
+  </si>
+  <si>
+    <t>Pegar a Ordem de Venda LN quando:
+Nr Pedido Loja = Nr Ped Cliente a ser dev ou trocado
+Nr Entrega = Nr Entrega a ser dev ou trocada
+Sequencial = Sequencial item a ser dev ou trocado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1424,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1236,7 +1459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1466,6 +1689,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1474,7 +1721,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1505,9 +1752,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1519,6 +1763,48 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,55 +1833,56 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,8 +1895,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -1913,456 +2200,456 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="10"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="10"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="10"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="10"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="10"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="10"/>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="10"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="10"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="10"/>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="10"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="10"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="10"/>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="10"/>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="10"/>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="10"/>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2449,8 +2736,8 @@
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2481,36 +2768,36 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="A3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="21">
-      <c r="A4" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
       <c r="S4" s="2"/>
@@ -2518,55 +2805,55 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>9</v>
@@ -2577,16 +2864,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -2601,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>2</v>
@@ -2622,10 +2909,10 @@
         <v>10</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -2633,16 +2920,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
@@ -2657,31 +2944,31 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2689,16 +2976,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -2707,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>2</v>
@@ -2734,10 +3021,10 @@
         <v>10</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -2745,16 +3032,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -2763,25 +3050,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>2</v>
@@ -2790,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2801,16 +3088,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>0</v>
@@ -2819,25 +3106,25 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>2</v>
@@ -2846,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -2857,16 +3144,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
@@ -2881,19 +3168,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>2</v>
@@ -2902,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="11.25" customHeight="1">
@@ -2913,16 +3200,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -2937,31 +3224,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="R14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -2969,16 +3256,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
@@ -2993,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -3025,16 +3312,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -3049,31 +3336,31 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3081,16 +3368,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -3105,31 +3392,31 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3140,197 +3427,189 @@
     </row>
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="18"/>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="17"/>
+      <c r="D20" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="21" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="38" t="s">
+      <c r="H23" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="P23" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="Q20" s="31" t="s">
+      <c r="Q23" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="K23" s="34" t="s">
+      <c r="R23" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="K27" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="O23" s="34" t="s">
+      <c r="O27" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="247.5">
+      <c r="K28" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="P23" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="30"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="30"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="K27" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="247.5">
-      <c r="K28" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="L23:L25"/>
     <mergeCell ref="M23:M25"/>
     <mergeCell ref="N23:N25"/>
@@ -3342,9 +3621,17 @@
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D20:F22"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3359,7 +3646,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+      <selection activeCell="D29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3376,270 +3663,272 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="A3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="38" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A19:D21"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="A22:A24"/>
@@ -3647,8 +3936,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3660,10 +3947,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AG28"/>
+  <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3681,130 +3968,130 @@
     <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
     <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="A3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
-      <c r="R4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>271</v>
@@ -3813,111 +4100,111 @@
         <v>272</v>
       </c>
       <c r="V7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="Y7" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="Z7" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AA7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AC7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="V8" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -3932,72 +4219,72 @@
         <v>10</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="AE8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4012,13 +4299,13 @@
         <v>298</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4033,274 +4320,274 @@
         <v>10</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="AE9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="U10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="Z10" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="AC10" s="2" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="AE10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AF10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:33" s="56" customFormat="1">
+      <c r="A11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="U11" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="V11" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="W11" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="X11" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y11" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB11" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AG10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="AD11" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="AE11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="AF11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="55" t="s">
         <v>10</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4312,16 +4599,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4336,671 +4623,1425 @@
         <v>10</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AE12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="AC13" s="2" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AE13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1">
+      <c r="C20" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD20" s="33"/>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="U23" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="V23" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="W23" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="X23" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y23" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z23" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA23" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB23" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC23" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD23" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG23" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH23" s="2"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="46"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="2"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="46"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="2"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="46"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="2"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="46"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="2"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="O28" s="45"/>
+      <c r="Q28" s="32"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="G29" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="O29" s="45"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="S29" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="T29" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="V29" s="45"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+    </row>
+    <row r="30" spans="1:34" ht="236.25">
+      <c r="G30" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="T30" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="O23:O29"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1</v>
+        <v>414</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="N21" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="42"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="42"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="42"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="N26" s="46"/>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="F27" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="N27" s="46"/>
-    </row>
-    <row r="28" spans="1:33" ht="191.25">
-      <c r="F28" s="45" t="s">
-        <v>181</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="I18" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
+  <mergeCells count="14">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A18:G20"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="I18:J20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>

--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId3"/>
     <sheet name="stg_cap_titulo" sheetId="95" r:id="rId4"/>
     <sheet name="stg_cap_reembolso" sheetId="96" r:id="rId5"/>
+    <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="476">
   <si>
     <t>1</t>
   </si>
@@ -534,13 +535,6 @@
   </si>
   <si>
     <t>Conferência dos dados da tabela:</t>
-  </si>
-  <si>
-    <t>Sessão tfacp2520m000 [no menu Exibições, selecionar "Incluindo Faturas Totalmente Pagas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tfacp2523m000 
-[selecionar o título desejado na sessão tfacp2520m000 e escolher no menu Referências a opção "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
     <t>Pegar a terceira informação da coluna Docum.</t>
@@ -588,12 +582,6 @@
     <t>Pegar a informação da coluna Valor da Transação</t>
   </si>
   <si>
-    <t>sessão tfacp2524s000 [selecionar o Documento na sessão tfacp2523m000  e escolher Referências, Detalhes</t>
-  </si>
-  <si>
-    <t>No cabeçalho da tela, linha Documento de Pagamento, possui 4 colunas de informação. Pegar as duas últimas colunas.</t>
-  </si>
-  <si>
     <t>tfacp2520m000, tfacp2523m000, tfacp2524s000</t>
   </si>
   <si>
@@ -603,14 +591,6 @@
     <t>Gerado a partir do CD_TRANSACAO_DOCUMENTO.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'PLG' = 1
- 'LKF' = 2
- 'PKF' = 2
-  'RKF'= 4
-Se a categoria retornar 10 de acordo com o CD_TRANSACAO_DOCUMENTO = 3
-Caso contrário = 0</t>
-  </si>
-  <si>
     <t>Regra utilizada:</t>
   </si>
   <si>
@@ -797,12 +777,6 @@
     <t>sessão tdrecl547m50l</t>
   </si>
   <si>
-    <t>sessão tdrecl505m50l [selecionar a referência fiscal na sessão tdrecl547m50l e no menu Ações, selecionar Linhas Rec Fiscal - Sumário</t>
-  </si>
-  <si>
-    <t>Pegar a informação da coluna Valor da Mercadoria [se tiver mais de um valor será necessário somá-los]</t>
-  </si>
-  <si>
     <t>dbo.stg_cap_titulo</t>
   </si>
   <si>
@@ -1106,12 +1080,6 @@
     <t>Fixo CAP</t>
   </si>
   <si>
-    <t>Pegar a segunda infromação da coluna Docum.</t>
-  </si>
-  <si>
-    <t>Pegar a primeira infromação da coluna Docum.</t>
-  </si>
-  <si>
     <t>Se  CD_TRANSACAO_TITULO for  'AGA' ou 'GA1', retornará 3. Caso contrário, 2.</t>
   </si>
   <si>
@@ -1131,12 +1099,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna Data do Vencimento</t>
-  </si>
-  <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento. Pegar a informação da coluna Data Vencimento Original</t>
-  </si>
-  <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Documentos Relacionados ao Pagamento por Entrada em Aberto. Selecionar a linha cujo tipo de documento seja igual à Pagamento Normal e no menu Referências, escolher a opção Documentos da Fatura por Pagamento. No cabeçalho, pegar a informação da Data do Pagamento</t>
   </si>
   <si>
     <t>Pegar a informação da coluna Valor</t>
@@ -1150,9 +1112,6 @@
   <si>
     <t>Pedir o detalhamento da linha selecionada. No cabeçalho da tela, pegar a informação do Aprovado para pagamento.
 Se estiver com Não ou Não aplicável será 2. Se tiver como sim, será 1</t>
-  </si>
-  <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento. Pegar a informação da coluna Status do Pagamento</t>
   </si>
   <si>
     <t xml:space="preserve">1-Não aplicável
@@ -1192,9 +1151,6 @@
     <t>Pegar informação da coluna Valor do Saldo [BRL]</t>
   </si>
   <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento e na sequência, detalhar a linha apresentada. Na aba Geral, pegar a primeira informação apresentada no campo Banco do Fornecedor</t>
-  </si>
-  <si>
     <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco Oficial. Pegar a informação da coluna Agência</t>
   </si>
   <si>
@@ -1205,13 +1161,6 @@
   </si>
   <si>
     <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco e pedir o seu detalhamento.  Na aba Detalhes,  seção Detalhes do Banco Pegar a segunda informação do campo Conta Bancária</t>
-  </si>
-  <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências,Documentos relacionados ao pagamento por entrada aberto. Selecionar a linha apresentada e no menu Referências, pedir Detalhes.
-Na aba Valor, pegar a informação de Multa por atraso de Pagamento</t>
-  </si>
-  <si>
-    <t>Com o botão direito do mouse sobre a linha desejada, escolher Referências, Progr. Pagamento. Pegar a informação da coluna Valor Taxa/Juros</t>
   </si>
   <si>
     <t>Segundo o Fábio da INFOR, essa informação não virá nesta base, pois aqui só conseguimos tratar os dados de Atacado e Varejo</t>
@@ -1357,6 +1306,193 @@
 Nr Pedido Loja = Nr Ped Cliente a ser dev ou trocado
 Nr Entrega = Nr Entrega a ser dev ou trocada
 Sequencial = Sequencial item a ser dev ou trocado</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_titulo_pgto</t>
+  </si>
+  <si>
+    <t>CD_BANCO</t>
+  </si>
+  <si>
+    <t>NR_AGENCIA</t>
+  </si>
+  <si>
+    <t>NR_CONTA_CORRENTE</t>
+  </si>
+  <si>
+    <t>CD_MODALIDADE_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>SQ_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>DT_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>VL_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_ESTORNO</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_PAGTO_ELETRONICO</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>CD_METODO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>388000.0000</t>
+  </si>
+  <si>
+    <t>2014-07-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>000000038</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>12000.0000</t>
+  </si>
+  <si>
+    <t>000000193</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2014-06-10 11:58:51.000</t>
+  </si>
+  <si>
+    <t>PAG2</t>
+  </si>
+  <si>
+    <t>156456</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2014-06-10 12:46:15.000</t>
+  </si>
+  <si>
+    <t>37000.0000</t>
+  </si>
+  <si>
+    <t>PBG2</t>
+  </si>
+  <si>
+    <t>2014-03-06 11:37:13.000</t>
+  </si>
+  <si>
+    <t>409200.0000</t>
+  </si>
+  <si>
+    <t>2014-03-06 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-25 00:00:00.000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2014-05-19 10:53:10.000</t>
+  </si>
+  <si>
+    <t>2000.0000</t>
+  </si>
+  <si>
+    <t>2014-05-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>PFS2</t>
+  </si>
+  <si>
+    <t>000000271</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2014-06-05 16:49:40.000</t>
+  </si>
+  <si>
+    <t>25000.0000</t>
+  </si>
+  <si>
+    <t>2014-06-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>PKK2</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>Sessão tfacp2520m000 [no menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000 
+[selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PLG' = 1
+ 'LKF' = 2
+ 'PKF' = 2
+  'RKF'= 4
+Se a categoria retornar 10 de acordo com o CD_TRANSACAO_DOCUMENTO, então virá 3
+Caso contrário = 0</t>
+  </si>
+  <si>
+    <t>sessão tfacp2524s000 [selecionar o Documento na sessão tfacp2523m000  e escolher Specific, Detalhes</t>
+  </si>
+  <si>
+    <t>No cabeçalho da tela , a linha Documento de Pagamento, possui 4 colunas de informação. Pegar as duas últimas colunas.</t>
+  </si>
+  <si>
+    <t>sessão tdrecl505m50l [selecionar a referência fiscal na sessão tdrecl547m50l e no menu Specific, selecionar Linhas Rec Fiscal - Sumário</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Valor da Mercadoria [se tiver mais de um item vendido, será necessário somá-los]</t>
+  </si>
+  <si>
+    <t>No menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Progr. Pagamento. Pegar a informação da coluna Data Vencimento Original</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Documentos Relacionados ao Pagamento por Entrada em Aberto. Selecionar a linha cujo tipo de documento seja igual à Pagamento Normal e no menu Specific, escolher a opção Documentos da Fatura por Pagamento. No cabeçalho, pegar a informação da Data do Pagamento</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Progr. Pagamento. Pegar a informação da coluna Status do Pagamento</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific,Documentos relacionados ao pagamento por entrada aberto. Selecionar a linha apresentada e no menu Specific, pedir Detalhes.
+Na aba Valor, pegar a informação de Multa por atraso de Pagamento</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Progr. Pagamento e na sequência, detalhar a linha apresentada. Na aba Geral, pegar a primeira informação apresentada no campo Banco do Fornecedor</t>
+  </si>
+  <si>
+    <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Progr. Pagamento. Pegar a informação da coluna Valor Juros</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1857,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1785,6 +1921,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1839,18 +1981,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1860,6 +1990,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1868,19 +2013,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1901,6 +2033,51 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21659850" y="4286250"/>
+          <a:ext cx="3152775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2736,8 +2913,8 @@
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23:R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2768,10 +2945,10 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="3" t="s">
         <v>164</v>
       </c>
@@ -2779,25 +2956,25 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="21">
-      <c r="A4" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
       <c r="S4" s="2"/>
@@ -3428,178 +3605,178 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="17"/>
-      <c r="D20" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>192</v>
+      <c r="D20" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="33"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="33"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="J23" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="K23" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" s="29" t="s">
+      <c r="O23" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>191</v>
+      <c r="R23" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="34"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="247.5">
       <c r="K28" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>189</v>
+        <v>464</v>
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="22"/>
@@ -3635,6 +3812,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3646,7 +3824,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="A29:D29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3663,267 +3841,267 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="21">
+      <c r="A3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>253</v>
+      <c r="E22" s="31" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3949,8 +4127,8 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3967,7 +4145,7 @@
     <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="2" customWidth="1"/>
     <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
@@ -3992,32 +4170,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
       <c r="P4" s="1"/>
@@ -4052,88 +4230,88 @@
         <v>94</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
@@ -4159,37 +4337,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>109</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
@@ -4198,13 +4376,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -4222,16 +4400,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>10</v>
@@ -4245,10 +4423,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -4260,31 +4438,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4296,16 +4474,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4323,16 +4501,16 @@
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>10</v>
@@ -4361,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -4370,13 +4548,13 @@
         <v>115</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>117</v>
@@ -4391,34 +4569,34 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>3</v>
@@ -4439,104 +4617,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="56" customFormat="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:33" s="5" customFormat="1">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55" t="s">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="55" t="s">
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="55" t="s">
+      <c r="K11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P11" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" s="55" t="s">
+      <c r="P11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R11" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="S11" s="55" t="s">
+      <c r="R11" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T11" s="55" t="s">
+      <c r="T11" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="U11" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="V11" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="W11" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="X11" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y11" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z11" s="55" t="s">
+      <c r="Y11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB11" s="55" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC11" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE11" s="55" t="s">
+      <c r="AC11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AF11" s="55" t="s">
+      <c r="AF11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AG11" s="55" t="s">
+      <c r="AG11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4548,10 +4726,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -4563,31 +4741,31 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4599,16 +4777,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4629,13 +4807,13 @@
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>10</v>
@@ -4649,10 +4827,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -4664,37 +4842,37 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>138</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>138</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
@@ -4703,25 +4881,25 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>3</v>
@@ -4730,13 +4908,13 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>10</v>
@@ -4750,10 +4928,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -4765,31 +4943,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>1</v>
@@ -4804,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>10</v>
@@ -4828,16 +5006,16 @@
         <v>10</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -4851,10 +5029,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -4866,31 +5044,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>1</v>
@@ -4902,16 +5080,16 @@
         <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>10</v>
@@ -4932,13 +5110,13 @@
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>10</v>
@@ -4952,10 +5130,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -4967,31 +5145,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>1</v>
@@ -5006,13 +5184,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>10</v>
@@ -5030,16 +5208,16 @@
         <v>10</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
@@ -5053,10 +5231,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -5068,31 +5246,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>1</v>
@@ -5107,25 +5285,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>3</v>
@@ -5134,408 +5312,408 @@
         <v>10</v>
       </c>
       <c r="AD17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1">
+      <c r="C20" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD20" s="35"/>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1">
+      <c r="A23" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="J23" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="AF17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD20" s="33"/>
-    </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-    </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="46" t="s">
+      <c r="K23" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="32" t="s">
+      <c r="N23" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="U23" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="W23" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y23" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z23" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA23" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB23" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC23" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="F23" s="32" t="s">
+      <c r="AD23" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="N23" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="O23" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="P23" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q23" s="32" t="s">
+      <c r="AE23" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF23" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG23" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="R23" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="S23" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="U23" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="V23" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="W23" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="X23" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y23" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z23" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA23" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB23" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC23" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD23" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE23" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF23" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG23" s="32" t="s">
-        <v>384</v>
-      </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="46"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="46"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="46"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
+      <c r="A26" s="52"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="46"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
+      <c r="A27" s="52"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="45"/>
-      <c r="Q28" s="32"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
+      <c r="O28" s="50"/>
+      <c r="Q28" s="34"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="G29" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="S29" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="T29" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="V29" s="45"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
+      <c r="G29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="S29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="V29" s="50"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="24"/>
@@ -5558,11 +5736,15 @@
     <mergeCell ref="Z23:Z29"/>
     <mergeCell ref="AA23:AA29"/>
     <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
     <mergeCell ref="AC23:AC29"/>
     <mergeCell ref="AD23:AD29"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="Q23:Q29"/>
     <mergeCell ref="W23:W28"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -5577,10 +5759,6 @@
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="H23:H27"/>
     <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5594,8 +5772,8 @@
   </sheetPr>
   <dimension ref="A2:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5637,33 +5815,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
@@ -5677,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>95</v>
@@ -5686,22 +5864,22 @@
         <v>105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5709,31 +5887,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5741,31 +5919,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5773,31 +5951,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5805,31 +5983,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5837,31 +6015,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5869,7 +6047,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>136</v>
@@ -5878,22 +6056,22 @@
         <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5901,149 +6079,1013 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="I18" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="J18" s="60"/>
+      <c r="A18" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="I18" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>430</v>
+      <c r="A21" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I18:J20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="J21:J26"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="A18:G20"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="I18:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AG22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" ht="21">
+      <c r="A4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="1"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="52"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="52"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="stg_cap_titulo" sheetId="95" r:id="rId4"/>
     <sheet name="stg_cap_reembolso" sheetId="96" r:id="rId5"/>
     <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId6"/>
+    <sheet name="Plan1" sheetId="99" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="499">
   <si>
     <t>1</t>
   </si>
@@ -375,18 +376,12 @@
     <t>2014-06-10 00:00:00.000</t>
   </si>
   <si>
-    <t>PNG2</t>
-  </si>
-  <si>
     <t>2014-06-10 11:07:04.000</t>
   </si>
   <si>
     <t>719000.0000</t>
   </si>
   <si>
-    <t>2014-06-10 11:51:26.000</t>
-  </si>
-  <si>
     <t>PAG1</t>
   </si>
   <si>
@@ -462,55 +457,13 @@
     <t>PSG1</t>
   </si>
   <si>
-    <t>RKF</t>
-  </si>
-  <si>
-    <t>2013-11-11 00:00:00.000</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>NCC12</t>
-  </si>
-  <si>
-    <t>2013-11-11 16:32:43.000</t>
-  </si>
-  <si>
-    <t>-1650.0000</t>
-  </si>
-  <si>
     <t>AFA2</t>
   </si>
   <si>
-    <t>2013-12-10 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2013-12-10 12:49:05.000</t>
-  </si>
-  <si>
-    <t>2013-12-17 11:46:58.000</t>
-  </si>
-  <si>
     <t>LKF</t>
-  </si>
-  <si>
-    <t>2013-11-11 13:33:57.000</t>
-  </si>
-  <si>
-    <t>1650.0000</t>
-  </si>
-  <si>
-    <t>2013-11-11 13:34:59.000</t>
-  </si>
-  <si>
-    <t>2014-01-20 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-01-20 08:51:37.000</t>
-  </si>
-  <si>
-    <t>2014-05-08 20:46:37.000</t>
   </si>
   <si>
     <t>dbo.stg_cap_titulo_mvmto</t>
@@ -1107,9 +1060,6 @@
     <t>Usando como base o Tipo de Transação e Nr Documento [segunda e terceira informação da coluna No Documento], pegar a informação da coluna Referência Fiscal</t>
   </si>
   <si>
-    <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se estiver nulo, a view está buscando a informação Valor da sessão tfacp2520m000</t>
-  </si>
-  <si>
     <t>Pedir o detalhamento da linha selecionada. No cabeçalho da tela, pegar a informação do Aprovado para pagamento.
 Se estiver com Não ou Não aplicável será 2. Se tiver como sim, será 1</t>
   </si>
@@ -1151,30 +1101,12 @@
     <t>Pegar informação da coluna Valor do Saldo [BRL]</t>
   </si>
   <si>
-    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco Oficial. Pegar a informação da coluna Agência</t>
-  </si>
-  <si>
-    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco Oficial. Pegar a informação da coluna DAC Agência</t>
-  </si>
-  <si>
-    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco e pedir o seu detalhamento.  Na aba Detalhes,  seção Detalhes do Banco Pegar a primeira informação do campo Conta Bancária</t>
-  </si>
-  <si>
-    <t>Fazer a seleção do CD_BANCO_DESTINO no campo Banco e pedir o seu detalhamento.  Na aba Detalhes,  seção Detalhes do Banco Pegar a segunda informação do campo Conta Bancária</t>
-  </si>
-  <si>
     <t>Segundo o Fábio da INFOR, essa informação não virá nesta base, pois aqui só conseguimos tratar os dados de Atacado e Varejo</t>
   </si>
   <si>
     <t>Sessão tfacp2520m000</t>
   </si>
   <si>
-    <t>Sessão tfcmg0511m000</t>
-  </si>
-  <si>
-    <t>Sessão tfcmg0510m000</t>
-  </si>
-  <si>
     <t>tfacp2520m000, tfcmg0511m000, tfcmg0510m000, tdrecl504m00l</t>
   </si>
   <si>
@@ -1287,9 +1219,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna Parceiro de Negócios</t>
-  </si>
-  <si>
-    <t>znslsc530m000, znslsc501m000</t>
   </si>
   <si>
     <t>Sessão znslsc530m000</t>
@@ -1494,12 +1423,172 @@
   <si>
     <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Progr. Pagamento. Pegar a informação da coluna Valor Juros</t>
   </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>PFA190</t>
+  </si>
+  <si>
+    <t>2014-06-30 18:23:30.000</t>
+  </si>
+  <si>
+    <t>PNG1</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>206.0000</t>
+  </si>
+  <si>
+    <t>AFA22</t>
+  </si>
+  <si>
+    <t>2014-05-06 16:46:18.000</t>
+  </si>
+  <si>
+    <t>-409200.0000</t>
+  </si>
+  <si>
+    <t>2014-05-08 20:48:08.000</t>
+  </si>
+  <si>
+    <t>AFS2</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>-105529.9100</t>
+  </si>
+  <si>
+    <t>2014-06-23 15:37:56.000</t>
+  </si>
+  <si>
+    <t>NDC2</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>PFA126</t>
+  </si>
+  <si>
+    <t>2014-06-20 19:24:46.000</t>
+  </si>
+  <si>
+    <t>2014-06-20 19:24:45.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0511m000 [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e pegar a informação da coluna Agência</t>
+  </si>
+  <si>
+    <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e  pegar a informação da coluna DAC Agência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0510m000  [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t>Informar no campo "Filial Bco" o "Cód Relação Bancária" e  pedir o detalhamento da linha apresentada.  Na aba Detalhes,  seção Detalhes do Banco Pegar a primeira informação do campo Conta Bancária</t>
+  </si>
+  <si>
+    <t>Informar no campo "Filial Bco" o "Cód Relação Bancária" e  pedir o detalhamento da linha apresentada.  Na aba Detalhes,  seção Detalhes do Banco Pegar a segunda informação do campo Conta Bancária</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se estiver nulo, a view está buscando a informação "Valor" da sessão tfacp2520m000</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 e tcemm0130m000</t>
+  </si>
+  <si>
+    <t>znslsc530m000, znslsc501m000, tdsls4100m000,tcemm0130m000</t>
+  </si>
+  <si>
+    <t>Nesta sessão, filtrar a ordem de Venda desejada. Pedir o detalhamento do campo Dep. De Vendas. Na sequência pegar o código da Unidade Empresarial
+Ir para a sessão tcemm0130m000 e pegar o campo Cat.da Uni Empresarial referente à Unidade Empresarial que estamos analisando</t>
+  </si>
+  <si>
+    <t>tfacp2520m000</t>
+  </si>
+  <si>
+    <t>Selecionar a linha apresentada e no menu Specific, selecionar Detalhes. Na aba Valor, seção Detalhes, pegar as informações "Valor" + "Valor Imposto Retido" [valor absoluto]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da data do Documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000  [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Modalidade de pagamento</t>
+  </si>
+  <si>
+    <t>1-Crédito em C/ Corrente
+2-Cheque administrativo
+3-DOC - COMPE
+4-DOC - CIP
+5-DOC - STR
+6-Títulos do banco
+7-Títulos de terceiros
+8-Títulos de concessionárias
+9-Crédito em poupança
+10-Ordem de pagamento
+11-Não aplicável
+12-Crédito C/C Real Time
+13-GPS
+14-DARF Normal
+15-DARF Simples
+16-GARE-ICMS-SP
+17-GNRE e tributos com código de barras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp1103m000  [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
+  </si>
+  <si>
+    <t>Sessão tfacp6500m000 [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar a informação "Método de Pgto"</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar a primeira informação do Banco do Fornecedor</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar na segunda informação do Banco do Fornecedor o código da Agência</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar na terceira informação do Banco do Fornecedor o Número da Conta</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar a primeira informação da Rel. Bancária</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar na segunda informação da Rel. Bancária o código da Agência</t>
+  </si>
+  <si>
+    <t>Na seção "Detalhe de Pagamento", pegar na terceira informação da Rel. Bancária o número da conta [sem o dígito]</t>
+  </si>
+  <si>
+    <t>A query busca o campo [tfacp600.t$sdat] . Como não encontro essa data nas telas do LN, o Fábio respondeu o seguinte:
+[08/05/2014 10:19:59] Fabio Ferreira - INFOR: é um campo de controle que mostra quando foi criado o relacionamento com o pagamento
+Sendo assim, não é possível validar essa informação pelas telas do LN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,6 +1652,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1857,7 +1954,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1927,11 +2024,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1940,12 +2037,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,11 +2066,35 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1990,31 +2105,43 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2026,9 +2153,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA7E7E"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFA7E7E"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -2911,10 +3038,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2940,47 +3067,43 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="S1" s="2"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="45"/>
+    <row r="1" spans="1:29">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="21">
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="45"/>
+        <v>148</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="21">
+      <c r="A3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="S3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="21">
-      <c r="A4" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+        <v>166</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" ht="21">
+      <c r="A4" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
-      <c r="S4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1">
+    <row r="8" spans="1:29" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3103,10 +3226,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
@@ -3115,40 +3238,40 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -3159,10 +3282,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -3171,40 +3294,40 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>452</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="P10" s="2" t="s">
-        <v>10</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3215,10 +3338,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -3227,40 +3350,40 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>132</v>
+        <v>460</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3271,10 +3394,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>0</v>
@@ -3283,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
@@ -3292,16 +3415,16 @@
         <v>108</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>2</v>
@@ -3310,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -3327,10 +3450,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
@@ -3339,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
@@ -3351,13 +3474,13 @@
         <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>2</v>
@@ -3366,13 +3489,13 @@
         <v>10</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="11.25" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="11.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3383,52 +3506,52 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>107</v>
@@ -3451,40 +3574,40 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>154</v>
+        <v>424</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -3495,10 +3618,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -3507,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>110</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>158</v>
+        <v>467</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>160</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3551,10 +3674,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>153</v>
+        <v>468</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>107</v>
+        <v>469</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -3563,37 +3686,37 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>147</v>
+        <v>469</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>162</v>
+        <v>471</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>163</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3605,122 +3728,122 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="17"/>
-      <c r="D20" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q20" s="35" t="s">
-        <v>187</v>
+      <c r="D20" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="35"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="35"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D23" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="45" t="s">
         <v>170</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="34" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3741,7 +3864,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
-      <c r="R24" s="34"/>
+      <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="33"/>
@@ -3761,22 +3884,22 @@
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
-      <c r="R25" s="34"/>
+      <c r="R25" s="45"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="20" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="247.5">
       <c r="K28" s="21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="22"/>
@@ -3784,11 +3907,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -3803,12 +3927,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3824,7 +3947,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3841,252 +3964,252 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="45"/>
+      <c r="A3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="29" t="s">
-        <v>467</v>
+      <c r="A19" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="43" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4127,8 +4250,8 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23:AA29"/>
+    <sheetView topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4157,10 +4280,10 @@
     <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
     <col min="23" max="23" width="25" style="2" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" style="2" customWidth="1"/>
     <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
     <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
     <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -4170,32 +4293,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="45"/>
+      <c r="A3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1"/>
       <c r="O4" s="14"/>
       <c r="P4" s="1"/>
@@ -4230,88 +4353,88 @@
         <v>94</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="V7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="Y7" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="Z7" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="AC7" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
@@ -4337,37 +4460,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>109</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
@@ -4376,13 +4499,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -4400,16 +4523,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>10</v>
@@ -4423,10 +4546,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -4438,31 +4561,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4474,16 +4597,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4501,16 +4624,16 @@
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>10</v>
@@ -4524,7 +4647,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>115</v>
@@ -4539,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -4548,13 +4671,13 @@
         <v>115</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>117</v>
@@ -4563,40 +4686,40 @@
         <v>117</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="U10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>3</v>
@@ -4605,13 +4728,13 @@
         <v>10</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>10</v>
@@ -4625,10 +4748,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -4640,64 +4763,64 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>2</v>
@@ -4706,13 +4829,13 @@
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG11" s="4" t="s">
         <v>10</v>
@@ -4726,10 +4849,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -4741,31 +4864,31 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4777,16 +4900,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4807,13 +4930,13 @@
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>10</v>
@@ -4827,10 +4950,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -4842,37 +4965,37 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
@@ -4881,25 +5004,25 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>3</v>
@@ -4908,13 +5031,13 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>10</v>
@@ -4928,10 +5051,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -4943,31 +5066,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>1</v>
@@ -4982,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>10</v>
@@ -5006,16 +5129,16 @@
         <v>10</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -5029,10 +5152,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -5044,31 +5167,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>1</v>
@@ -5080,16 +5203,16 @@
         <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>10</v>
@@ -5110,13 +5233,13 @@
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>10</v>
@@ -5130,10 +5253,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -5145,31 +5268,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>1</v>
@@ -5184,13 +5307,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>10</v>
@@ -5208,16 +5331,16 @@
         <v>10</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
@@ -5231,10 +5354,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -5246,31 +5369,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>1</v>
@@ -5285,25 +5408,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="V17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>3</v>
@@ -5312,414 +5435,437 @@
         <v>10</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AE17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1">
+      <c r="C20" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD20" s="46"/>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1">
+      <c r="A23" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q23" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="T23" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="AF17" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD20" s="35"/>
-    </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-    </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="52" t="s">
+      <c r="U23" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="34" t="s">
+      <c r="V23" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="W23" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y23" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA23" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB23" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC23" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD23" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE23" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="34" t="s">
+      <c r="AF23" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG23" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>470</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="R23" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="U23" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="V23" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="W23" s="53" t="s">
-        <v>475</v>
-      </c>
-      <c r="X23" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="Y23" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z23" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA23" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB23" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC23" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD23" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE23" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF23" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG23" s="34" t="s">
-        <v>369</v>
-      </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="52"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="51"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
-      <c r="U24" s="56"/>
+      <c r="U24" s="48"/>
       <c r="V24" s="50"/>
-      <c r="W24" s="53"/>
+      <c r="W24" s="52"/>
       <c r="X24" s="50"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="52"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="51"/>
       <c r="O25" s="50"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="56"/>
+      <c r="U25" s="48"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="53"/>
+      <c r="W25" s="52"/>
       <c r="X25" s="50"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="52"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="A26" s="56"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="51"/>
       <c r="O26" s="50"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
-      <c r="U26" s="56"/>
+      <c r="U26" s="48"/>
       <c r="V26" s="50"/>
-      <c r="W26" s="53"/>
+      <c r="W26" s="52"/>
       <c r="X26" s="50"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="52"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
+      <c r="A27" s="56"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="51"/>
       <c r="O27" s="50"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="49"/>
       <c r="V27" s="50"/>
-      <c r="W27" s="53"/>
+      <c r="W27" s="52"/>
       <c r="X27" s="50"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
       <c r="O28" s="50"/>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="45"/>
       <c r="V28" s="50"/>
-      <c r="W28" s="53"/>
+      <c r="W28" s="52"/>
       <c r="X28" s="50"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
     </row>
     <row r="29" spans="1:34">
       <c r="G29" s="27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O29" s="50"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="S29" s="27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="V29" s="50"/>
       <c r="W29" s="28"/>
       <c r="X29" s="50"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="26" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="O23:O29"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
     <mergeCell ref="AE23:AE27"/>
     <mergeCell ref="AG23:AG27"/>
     <mergeCell ref="C20:X22"/>
@@ -5736,29 +5882,6 @@
     <mergeCell ref="Z23:Z29"/>
     <mergeCell ref="AA23:AA29"/>
     <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="O23:O29"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5770,10 +5893,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AG26"/>
+  <dimension ref="A2:AG29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H23"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5785,9 +5908,9 @@
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
@@ -5815,35 +5938,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="45"/>
+      <c r="A3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="A4" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="15"/>
@@ -5855,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>95</v>
@@ -5864,22 +5987,22 @@
         <v>105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>377</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5887,31 +6010,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5919,31 +6042,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5951,31 +6074,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5983,31 +6106,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6015,31 +6138,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6047,31 +6170,31 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6079,143 +6202,167 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="I18" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="J18" s="58"/>
+      <c r="A18" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="64" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>415</v>
+      <c r="A21" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="J29" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I18:J20"/>
+  <mergeCells count="16">
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="H18:I20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="H21:H26"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="G21:G23"/>
-    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="I21:I26"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
@@ -6231,12 +6378,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AG22"/>
+  <dimension ref="A2:AI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6245,23 +6392,24 @@
     <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="59.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" style="2" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
     <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
@@ -6277,37 +6425,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="3" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -6323,67 +6473,67 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>419</v>
+        <v>95</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>421</v>
+        <v>96</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>422</v>
+        <v>241</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>426</v>
+        <v>251</v>
       </c>
       <c r="N7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6391,67 +6541,67 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="S8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -6459,135 +6609,135 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>407</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="P9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="K10" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="R10" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="S10" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="T10" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="V10" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -6595,67 +6745,67 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>436</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6663,67 +6813,67 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="S12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6731,67 +6881,67 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>439</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6799,67 +6949,67 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6867,67 +7017,67 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="V15" s="2" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6935,159 +7085,574 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="52" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="52"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="52"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="52"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="11.25" customHeight="1">
+      <c r="B20" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+    </row>
+    <row r="21" spans="1:35" ht="11.25" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+    </row>
+    <row r="22" spans="1:35" ht="11.25" customHeight="1">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+    </row>
+    <row r="23" spans="1:35" ht="11.25" customHeight="1">
+      <c r="A23" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q23" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="50"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="50"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="50"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="50"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="R28" s="50"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="I29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R29" s="50"/>
+    </row>
+    <row r="30" spans="1:35" ht="191.25">
+      <c r="I30" s="21" t="s">
+        <v>488</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:A22"/>
+  <mergeCells count="25">
+    <mergeCell ref="R23:R29"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="K20:Q22"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E20:I22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K23:K27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(C2,",")</f>
+        <v>CD_CIA,</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D19" si="0">CONCATENATE(C3,",")</f>
+        <v>CD_CHAVE_PRIMARIA,</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_TITULO,</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>SQ_DOCUMENTO,</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_MOVIMENTO,</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_LIQUIDACAO_TITULO,</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_PAGAMENTO,</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_MOVIMENTO,</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_PROGRAMACAO,</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_TRANSACAO_DOCUMENTO,</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_TIPO_PAGAMENTO,</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_TRANSACAO,</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>IN_ENTRADA_SAIDA,</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_TRANSACAO,</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_TIPO_MOVIMENTO,</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_TITULO_REFERENCIA,</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_SITUACAO,</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE(C19,",")</f>
+        <v>DT_ATUALIZACAO,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_cap_titulo_mvmto" sheetId="33" r:id="rId2"/>
-    <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId3"/>
-    <sheet name="stg_cap_titulo" sheetId="95" r:id="rId4"/>
-    <sheet name="stg_cap_reembolso" sheetId="96" r:id="rId5"/>
-    <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId6"/>
-    <sheet name="Plan1" sheetId="99" r:id="rId7"/>
+    <sheet name="stg_cap_titulo" sheetId="95" r:id="rId2"/>
+    <sheet name="stg_cap_titulo_mvmto" sheetId="33" r:id="rId3"/>
+    <sheet name="stg_cap_titulo_reembolso" sheetId="96" r:id="rId4"/>
+    <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId5"/>
+    <sheet name="stg_cap_titulo_reversao" sheetId="100" r:id="rId6"/>
+    <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="495">
   <si>
     <t>1</t>
   </si>
@@ -67,235 +67,7 @@
     <t>CAP</t>
   </si>
   <si>
-    <t>stg_dom_municipio</t>
-  </si>
-  <si>
-    <t>stg_dom_natureza_lancamento</t>
-  </si>
-  <si>
-    <t>stg_dom_natureza_operacao</t>
-  </si>
-  <si>
-    <t>stg_dom_natureza_tipo_operacao</t>
-  </si>
-  <si>
-    <t>stg_dom_nfr_motivo_devolucao</t>
-  </si>
-  <si>
-    <t>stg_dom_nfr_tipo_operacao</t>
-  </si>
-  <si>
-    <t>stg_dom_nfv_cancelamento</t>
-  </si>
-  <si>
-    <t>stg_dom_nfv_status_sefaz</t>
-  </si>
-  <si>
-    <t>stg_dom_orc_tipo</t>
-  </si>
-  <si>
-    <t>stg_dom_parceiro_cadastro</t>
-  </si>
-  <si>
-    <t>stg_dom_parceiro_endereco</t>
-  </si>
-  <si>
-    <t>stg_dom_parceiro_tipo_cadastro</t>
-  </si>
-  <si>
-    <t>stg_dom_parceiro_tipo_cliente</t>
-  </si>
-  <si>
-    <t>stg_dom_pec_documento_fiscal</t>
-  </si>
-  <si>
-    <t>stg_dom_pec_status_item</t>
-  </si>
-  <si>
-    <t>stg_dom_pec_tipo_cadastro</t>
-  </si>
-  <si>
-    <t>stg_dom_pec_tipo_frete</t>
-  </si>
-  <si>
-    <t>stg_dom_pec_tipo_ordem_compra</t>
-  </si>
-  <si>
-    <t>stg_dom_pev_origem</t>
-  </si>
-  <si>
-    <t>stg_dom_pev_status_pagamento</t>
-  </si>
-  <si>
-    <t>stg_dom_pev_tipo_pedido</t>
-  </si>
-  <si>
-    <t>stg_dom_situacao_nf</t>
-  </si>
-  <si>
-    <t>stg_dom_situacao_pagamento</t>
-  </si>
-  <si>
-    <t>stg_dom_situacao_pedido</t>
-  </si>
-  <si>
-    <t>stg_dom_situacao_titulo</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_categoria</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_controle</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_departamento</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_ean</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_genero</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_kit</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_familia</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_nproduto</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_procedencia</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_setor</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_situacao</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_subfamilia</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_tipo_servico</t>
-  </si>
-  <si>
-    <t>stg_dom_sku_unidade_medida</t>
-  </si>
-  <si>
-    <t>stg_dom_status</t>
-  </si>
-  <si>
-    <t>stg_dom_tipo_documento</t>
-  </si>
-  <si>
-    <t>stg_dom_tipo_entrega</t>
-  </si>
-  <si>
-    <t>stg_dom_tipo_nota_fiscal</t>
-  </si>
-  <si>
-    <t>stg_dom_tipo_transacao</t>
-  </si>
-  <si>
-    <t>stg_dom_tipo_transporte</t>
-  </si>
-  <si>
-    <t>stg_dom_transacao</t>
-  </si>
-  <si>
-    <t>stg_dom_trk_codigo_sistema_fonte</t>
-  </si>
-  <si>
-    <t>stg_dom_unidade_negocio</t>
-  </si>
-  <si>
-    <t>stg_dom_wms_planta</t>
-  </si>
-  <si>
-    <t>stg_dom_adquirente</t>
-  </si>
-  <si>
-    <t>stg_dom_banco</t>
-  </si>
-  <si>
-    <t>stg_dom_bandeira_cartao</t>
-  </si>
-  <si>
-    <t>stg_dom_canal_venda</t>
-  </si>
-  <si>
-    <t>stg_dom_cap_bco_parceiro</t>
-  </si>
-  <si>
-    <t>stg_dom_cap_preparado_pagto</t>
-  </si>
-  <si>
-    <t>stg_dom_cap_tipo_pagto</t>
-  </si>
-  <si>
-    <t>stg_dom_centro_custo</t>
-  </si>
-  <si>
-    <t>stg_dom_companhia</t>
-  </si>
-  <si>
-    <t>stg_dom_condicao_pagamento</t>
-  </si>
-  <si>
-    <t>stg_dom_conta_contabil</t>
-  </si>
-  <si>
-    <t>stg_dom_deposito</t>
-  </si>
-  <si>
-    <t>stg_dom_dev_sistema_fonte</t>
-  </si>
-  <si>
-    <t>stg_dom_est_modalidade</t>
-  </si>
-  <si>
-    <t>stg_dom_est_tipo_bloqueio</t>
-  </si>
-  <si>
-    <t>stg_dom_fat_moeda</t>
-  </si>
-  <si>
-    <t>stg_dom_fat_tipo_nf</t>
-  </si>
-  <si>
-    <t>stg_dom_filial</t>
-  </si>
-  <si>
-    <t>stg_dom_meio_pagto</t>
-  </si>
-  <si>
-    <t>stg_dom_metodo_pagto</t>
-  </si>
-  <si>
-    <t>stg_dom_modalidade_pagto</t>
-  </si>
-  <si>
-    <t>stg_dom_movimento_transacao</t>
-  </si>
-  <si>
-    <t>stg_dom_wms_onda</t>
-  </si>
-  <si>
-    <t>stg_dom_wms_tracking_pedido</t>
-  </si>
-  <si>
-    <t>Só extração do WMS</t>
-  </si>
-  <si>
-    <t>não encontrei o ETL para carga</t>
-  </si>
-  <si>
     <t>OBSERVAÇÕES</t>
-  </si>
-  <si>
-    <t>Mapeado somente dados do LN</t>
   </si>
   <si>
     <t>TABELAS</t>
@@ -1516,9 +1288,6 @@
   <si>
     <t>Nesta sessão, filtrar a ordem de Venda desejada. Pedir o detalhamento do campo Dep. De Vendas. Na sequência pegar o código da Unidade Empresarial
 Ir para a sessão tcemm0130m000 e pegar o campo Cat.da Uni Empresarial referente à Unidade Empresarial que estamos analisando</t>
-  </si>
-  <si>
-    <t>tfacp2520m000</t>
   </si>
   <si>
     <t>Selecionar a linha apresentada e no menu Specific, selecionar Detalhes. Na aba Valor, seção Detalhes, pegar as informações "Valor" + "Valor Imposto Retido" [valor absoluto]</t>
@@ -1579,9 +1348,244 @@
     <t>Na seção "Detalhe de Pagamento", pegar na terceira informação da Rel. Bancária o número da conta [sem o dígito]</t>
   </si>
   <si>
+    <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, fazer o detalhamento e pegar a data da última alteração se o campo estornar pagamento estiver ticado.</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl300m00l</t>
+  </si>
+  <si>
+    <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, pegar a informação "Status do envio"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Aberto
+2-Gerado
+3-Confirmado
+4-Protestado
+5-Rejeitado
+6-Pago
+7-Não aplicável
+8-Pagto Cheque
+9-Pagto Cancelado
+</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgd568m00d</t>
+  </si>
+  <si>
+    <t>Filtrar pelo lote de pagamento do título que está sendo analisado. Pegar a informação existente na coluna "Status Lote de Pagamento"</t>
+  </si>
+  <si>
+    <t>1-Selecionado
+2-Criado
+3-Atribuído
+4-Auditado
+5-Pago
+6-Lançado
+7-Removido
+8-TNP processado
+qdo não tem dados, retorna 0</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg1521m000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na linha cujo Tipo de Documento é "Pagamento Normal", pegar a data do Documento </t>
+  </si>
+  <si>
     <t>A query busca o campo [tfacp600.t$sdat] . Como não encontro essa data nas telas do LN, o Fábio respondeu o seguinte:
-[08/05/2014 10:19:59] Fabio Ferreira - INFOR: é um campo de controle que mostra quando foi criado o relacionamento com o pagamento
-Sendo assim, não é possível validar essa informação pelas telas do LN</t>
+[08/05/2014 10:19:59] Fabio Ferreira - INFOR: é um campo de controle [data de criação] que mostra quando foi criado o relacionamento com o pagamento Sendo assim, não é possível validar essa informação pelas telas do LN</t>
+  </si>
+  <si>
+    <t>tfacp2520m000, tfacp2523m000, tfacp1103m000, tfacp6500m000, tfcmgl300m00l, tfcmgd568m00d e tfcmg1521m000</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_titulo_reversao</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_LINK</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO_LINK</t>
+  </si>
+  <si>
+    <t>NR_LINHA_LINK</t>
+  </si>
+  <si>
+    <t>DT_LINK</t>
+  </si>
+  <si>
+    <t>VL_LINK</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_REVERSAO</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO_REVERSAO</t>
+  </si>
+  <si>
+    <t>NR_LINHA_REVERSAO</t>
+  </si>
+  <si>
+    <t>DT_REVERSAO</t>
+  </si>
+  <si>
+    <t>AFA30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2014-02-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-40000.0000</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>2014-06-24 10:34:07.000</t>
+  </si>
+  <si>
+    <t>NCC39</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>765.8600</t>
+  </si>
+  <si>
+    <t>2014-06-25 10:28:04.000</t>
+  </si>
+  <si>
+    <t>2014-06-23 11:40:09.000</t>
+  </si>
+  <si>
+    <t>PFA30</t>
+  </si>
+  <si>
+    <t>2014-05-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>-765.8600</t>
+  </si>
+  <si>
+    <t>2014-06-25 10:28:02.000</t>
+  </si>
+  <si>
+    <t>PFA25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2014-05-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-06-24 13:48:13.000</t>
+  </si>
+  <si>
+    <t>PFA36</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-1545.5000</t>
+  </si>
+  <si>
+    <t>2014-06-25 10:28:58.000</t>
+  </si>
+  <si>
+    <t>NCC126</t>
+  </si>
+  <si>
+    <t>2014-06-24 00:00:00.000</t>
+  </si>
+  <si>
+    <t>40000.0000</t>
+  </si>
+  <si>
+    <t>2014-06-24 13:48:17.000</t>
+  </si>
+  <si>
+    <t>2014-06-24 10:34:05.000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2014-07-07 16:19:43.000</t>
+  </si>
+  <si>
+    <t>PDA4</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>900.0000</t>
+  </si>
+  <si>
+    <t>2014-07-02 18:00:36.000</t>
+  </si>
+  <si>
+    <t>znacpc501m000</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tipo Trans e Número do Documento</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tp. Tr. Link</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna No.Docto.Link</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Linha</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Data Link NC</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Valor do Link</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tp.Tr.Rev.Link</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna No.Docto.Rev.Link</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Linha (Link)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Data Reversão</t>
+  </si>
+  <si>
+    <t>Se Tipo Trans  for  'AGA' ou 'GA1', retornará 3. Caso contrário, 2.</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_mvmto</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_reembolso</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_referencia</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_reversao</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_pgto</t>
+  </si>
+  <si>
+    <t>Informar nos campos "Tipo Trans" e "Número do Documento" as informações desejadas e ir com a setinha de avanço até encontrar o registro, pois a view não tem o Cód Parceiro</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1958,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1976,10 +1980,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2024,11 +2026,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2037,6 +2042,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2066,35 +2077,11 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2105,10 +2092,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2129,6 +2122,15 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,10 +2140,53 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2153,8 +2198,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -2492,9 +2537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C74"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2504,530 +2551,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="B2" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="10"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="10"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="10"/>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="10"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="10"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="10"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="10"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="10"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="10"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="10"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="10"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="10"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="10"/>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="10"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="10"/>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="stg_dom_banco!A1" display="stg_dom_banco"/>
-    <hyperlink ref="B4" location="stg_dom_bandeira_cartao!A1" display="stg_dom_bandeira_cartao"/>
-    <hyperlink ref="B5" location="stg_dom_canal_venda!A1" display="stg_dom_canal_venda"/>
-    <hyperlink ref="B6" location="stg_dom_cap_bco_parceiro!A1" display="stg_dom_cap_bco_parceiro"/>
-    <hyperlink ref="B7" location="stg_dom_cap_preparado_pagto!A1" display="stg_dom_cap_preparado_pagto"/>
-    <hyperlink ref="B8" location="stg_dom_cap_tipo_pagto!A1" display="stg_dom_cap_tipo_pagto"/>
-    <hyperlink ref="B9" location="stg_dom_centro_custo!A1" display="stg_dom_centro_custo"/>
-    <hyperlink ref="B10" location="stg_dom_companhia!A1" display="stg_dom_companhia"/>
-    <hyperlink ref="B11" location="stg_dom_condicao_pagamento!A1" display="stg_dom_condicao_pagamento"/>
-    <hyperlink ref="B12" location="stg_dom_conta_contabil!A1" display="stg_dom_conta_contabil"/>
-    <hyperlink ref="B13" location="stg_dom_deposito!A1" display="stg_dom_deposito"/>
-    <hyperlink ref="B14" location="stg_dom_dev_sistema_fonte!A1" display="stg_dom_dev_sistema_fonte"/>
-    <hyperlink ref="B15" location="stg_dom_est_modalidade!A1" display="stg_dom_est_modalidade"/>
-    <hyperlink ref="B16" location="stg_dom_est_tipo_bloqueio!A1" display="stg_dom_est_tipo_bloqueio"/>
-    <hyperlink ref="B17" location="stg_dom_fat_moeda!A1" display="stg_dom_fat_moeda"/>
-    <hyperlink ref="B18" location="stg_dom_fat_tipo_nf!A1" display="stg_dom_fat_tipo_nf"/>
-    <hyperlink ref="B19" location="stg_dom_filial!A1" display="stg_dom_filial"/>
-    <hyperlink ref="B20" location="stg_dom_meio_pagto!A1" display="stg_dom_meio_pagto"/>
-    <hyperlink ref="B21" location="stg_dom_metodo_pagto!A1" display="stg_dom_metodo_pagto"/>
-    <hyperlink ref="B22" location="stg_dom_modalidade_pagto!A1" display="stg_dom_modalidade_pagto"/>
-    <hyperlink ref="B23" location="stg_dom_movimento_transacao!A1" display="stg_dom_movimento_transacao"/>
-    <hyperlink ref="B24" location="stg_dom_municipio!A1" display="stg_dom_municipio"/>
-    <hyperlink ref="B25" location="stg_dom_natureza_lancamento!A1" display="stg_dom_natureza_lancamento"/>
-    <hyperlink ref="B26" location="stg_dom_natureza_operacao!A1" display="stg_dom_natureza_operacao"/>
-    <hyperlink ref="B27" location="stg_dom_natureza_tipo_operacao!A1" display="stg_dom_natureza_tipo_operacao"/>
-    <hyperlink ref="B28" location="stg_dom_nfr_motivo_devolucao!A1" display="stg_dom_nfr_motivo_devolucao"/>
-    <hyperlink ref="B29" location="stg_dom_nfr_tipo_operacao!A1" display="stg_dom_nfr_tipo_operacao"/>
-    <hyperlink ref="B30" location="stg_dom_nfv_cancelamento!A1" display="stg_dom_nfv_cancelamento"/>
-    <hyperlink ref="B31" location="stg_dom_nfv_status_sefaz!A1" display="stg_dom_nfv_status_sefaz"/>
-    <hyperlink ref="B32" location="stg_dom_orc_tipo!A1" display="stg_dom_orc_tipo"/>
-    <hyperlink ref="B33" location="stg_dom_parceiro_cadastro!A1" display="stg_dom_parceiro_cadastro"/>
-    <hyperlink ref="B34" location="stg_dom_parceiro_endereco!A1" display="stg_dom_parceiro_endereco"/>
-    <hyperlink ref="B35" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_parceiro_tipo_cadastro"/>
-    <hyperlink ref="B36" location="stg_dom_parceiro_tipo_cliente!A1" display="stg_dom_parceiro_tipo_cliente"/>
-    <hyperlink ref="B37" location="stg_dom_pec_documento_fiscal!A1" display="stg_dom_pec_documento_fiscal"/>
-    <hyperlink ref="B38" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item"/>
-    <hyperlink ref="B39" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro"/>
-    <hyperlink ref="B40" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete"/>
-    <hyperlink ref="B41" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra"/>
-    <hyperlink ref="B42" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem"/>
-    <hyperlink ref="B43" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento"/>
-    <hyperlink ref="B44" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido"/>
-    <hyperlink ref="B45" location="stg_dom_situacao_nf!A1" display="stg_dom_situacao_nf"/>
-    <hyperlink ref="B46" location="stg_dom_situacao_pagamento!A1" display="stg_dom_situacao_pagamento"/>
-    <hyperlink ref="B47" location="stg_dom_situacao_pedido!A1" display="stg_dom_situacao_pedido"/>
-    <hyperlink ref="B48" location="stg_dom_situacao_titulo!A1" display="stg_dom_situacao_titulo"/>
-    <hyperlink ref="B49" location="stg_dom_sku_categoria!A1" display="stg_dom_sku_categoria"/>
-    <hyperlink ref="B50" location="stg_dom_sku_controle!A1" display="stg_dom_sku_controle"/>
-    <hyperlink ref="B51" location="stg_dom_sku_departamento!A1" display="stg_dom_sku_departamento"/>
-    <hyperlink ref="B52" location="stg_dom_sku_ean!A1" display="stg_dom_sku_ean"/>
-    <hyperlink ref="B53" location="stg_dom_sku_familia!A1" display="stg_dom_sku_familia"/>
-    <hyperlink ref="B54" location="stg_dom_sku_genero!A1" display="stg_dom_sku_genero"/>
-    <hyperlink ref="B55" location="stg_dom_sku_kit!A1" display="stg_dom_sku_kit"/>
-    <hyperlink ref="B56" location="stg_dom_sku_nproduto!A1" display="stg_dom_sku_nproduto"/>
-    <hyperlink ref="B57" location="stg_dom_sku_procedencia!A1" display="stg_dom_sku_procedencia"/>
-    <hyperlink ref="B58" location="stg_dom_sku_setor!A1" display="stg_dom_sku_setor"/>
-    <hyperlink ref="B59" location="stg_dom_sku_situacao!A1" display="stg_dom_sku_situacao"/>
-    <hyperlink ref="B60" location="stg_dom_sku_subfamilia!A1" display="stg_dom_sku_subfamilia"/>
-    <hyperlink ref="B61" location="stg_dom_sku_tipo_servico!A1" display="stg_dom_sku_tipo_servico"/>
-    <hyperlink ref="B62" location="stg_dom_sku_unidade_medida!A1" display="stg_dom_sku_unidade_medida"/>
-    <hyperlink ref="B63" location="stg_dom_status!A1" display="stg_dom_status"/>
-    <hyperlink ref="B64" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento"/>
-    <hyperlink ref="B65" location="stg_dom_tipo_entrega!A1" display="stg_dom_tipo_entrega"/>
-    <hyperlink ref="B66" location="stg_dom_tipo_nota_fiscal!A1" display="stg_dom_tipo_nota_fiscal"/>
-    <hyperlink ref="B67" location="stg_dom_tipo_transacao!A1" display="stg_dom_tipo_transacao"/>
-    <hyperlink ref="B68" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
-    <hyperlink ref="B69" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
-    <hyperlink ref="B70" location="stg_dom_trk_cod_sist_fonte!A1" display="stg_dom_trk_codigo_sistema_fonte"/>
-    <hyperlink ref="B71" location="stg_dom_unidade_negocio!A1" display="stg_dom_unidade_negocio"/>
-    <hyperlink ref="B73" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
+    <hyperlink ref="B2" location="stg_cap_titulo!A1" display="stg_cap_titulo"/>
+    <hyperlink ref="B3" location="stg_cap_titulo_mvmto!A1" display="stg_cap_titulo_mvmto"/>
+    <hyperlink ref="B4" location="stg_cap_titulo_reembolso!A1" display="stg_cap_titulo_reembolso"/>
+    <hyperlink ref="B5" location="stg_cap_titulo_referencia!A1" display="stg_cap_titulo_referencia"/>
+    <hyperlink ref="B6" location="stg_cap_titulo_reversao!A1" display="stg_cap_titulo_reversao"/>
+    <hyperlink ref="B7" location="stg_cap_titulo_pgto!A1" display="stg_cap_titulo_pgto"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3038,1220 +2611,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="51.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="1"/>
-      <c r="O4" s="14"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="5" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="11.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="R23" s="45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="45"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="45"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="K27" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="247.5">
-      <c r="K28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="G20:O22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A2:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1">
-      <c r="A7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="43" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:AH30"/>
-  <sheetViews>
-    <sheetView topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+      <selection activeCell="F23" sqref="F23:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4293,34 +2656,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="3" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="1"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
@@ -4344,97 +2707,97 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
@@ -4445,10 +2808,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -4460,37 +2823,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
@@ -4499,13 +2862,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -4523,16 +2886,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>10</v>
@@ -4546,10 +2909,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -4561,31 +2924,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4597,16 +2960,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4624,16 +2987,16 @@
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>10</v>
@@ -4647,10 +3010,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>0</v>
@@ -4662,64 +3025,64 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>3</v>
@@ -4728,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>10</v>
@@ -4748,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -4763,64 +3126,64 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>2</v>
@@ -4829,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="AG11" s="4" t="s">
         <v>10</v>
@@ -4849,10 +3212,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -4864,31 +3227,31 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4900,16 +3263,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4930,13 +3293,13 @@
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>10</v>
@@ -4950,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -4965,37 +3328,37 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
@@ -5004,25 +3367,25 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>3</v>
@@ -5031,13 +3394,13 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>10</v>
@@ -5051,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -5066,31 +3429,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>1</v>
@@ -5105,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>10</v>
@@ -5129,16 +3492,16 @@
         <v>10</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -5152,10 +3515,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -5167,31 +3530,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>1</v>
@@ -5203,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>10</v>
@@ -5233,13 +3596,13 @@
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>10</v>
@@ -5253,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -5268,31 +3631,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>1</v>
@@ -5307,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>10</v>
@@ -5331,16 +3694,16 @@
         <v>10</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
@@ -5354,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -5369,31 +3732,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>1</v>
@@ -5408,25 +3771,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>3</v>
@@ -5435,414 +3798,437 @@
         <v>10</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="AG17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD20" s="46"/>
+      <c r="C20" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD20" s="34"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q23" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="R23" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="U23" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="V23" s="50" t="s">
-        <v>449</v>
+      <c r="A23" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="U23" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="V23" s="49" t="s">
+        <v>373</v>
       </c>
       <c r="W23" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="X23" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y23" s="45" t="s">
-        <v>474</v>
-      </c>
-      <c r="Z23" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA23" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB23" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC23" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD23" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE23" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF23" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG23" s="45" t="s">
-        <v>348</v>
+        <v>375</v>
+      </c>
+      <c r="X23" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y23" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z23" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA23" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC23" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE23" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF23" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG23" s="33" t="s">
+        <v>272</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="56"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="49"/>
       <c r="W24" s="52"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="56"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="50"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="49"/>
       <c r="W25" s="52"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="56"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="49"/>
       <c r="W26" s="52"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="56"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="50"/>
+      <c r="A27" s="51"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="49"/>
       <c r="W27" s="52"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="50"/>
-      <c r="Q28" s="45"/>
-      <c r="V28" s="50"/>
+      <c r="O28" s="49"/>
+      <c r="Q28" s="33"/>
+      <c r="V28" s="49"/>
       <c r="W28" s="52"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="G29" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="O29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="V29" s="50"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
+      <c r="G29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="V29" s="49"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
-      <c r="G30" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="R30" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="S30" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="T30" s="25" t="s">
-        <v>346</v>
+      <c r="G30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="24"/>
+      <c r="AD30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -5859,44 +4245,925 @@
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="AG23:AG27"/>
-    <mergeCell ref="C20:X22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="AA20:AB22"/>
-    <mergeCell ref="AC20:AD22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="AF23:AF27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="X23:X29"/>
-    <mergeCell ref="Y23:Y29"/>
-    <mergeCell ref="Z23:Z29"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="51.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="21">
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="21">
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" ht="21">
+      <c r="A4" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="1"/>
+      <c r="O4" s="12"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="5" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="11.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="K27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="247.5">
+      <c r="K28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="G20:O22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A2:AG29"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5938,39 +5205,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
       <c r="C2" s="3" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="8" spans="1:10">
@@ -5978,31 +5245,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6010,28 +5277,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
@@ -6042,28 +5309,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -6074,28 +5341,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
@@ -6106,28 +5373,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
@@ -6138,28 +5405,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>1</v>
@@ -6170,28 +5437,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>1</v>
@@ -6202,154 +5469,154 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="64" t="s">
-        <v>480</v>
+      <c r="A18" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="62" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="65"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="66"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>482</v>
+      <c r="A21" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="50"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="45"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="50"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="45"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="50"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="45"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="J27" s="50"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="J28" s="50"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="J29" s="50"/>
+      <c r="J29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6375,16 +5642,907 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="21">
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFA7E7E"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AI30"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21">
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A4" s="81" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A4:I5"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AJ30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6397,19 +6555,19 @@
     <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="24" style="2" customWidth="1"/>
     <col min="9" max="9" width="33.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="59.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="60.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="32.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="23" style="2" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="29.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="52.7109375" style="2" customWidth="1"/>
     <col min="23" max="23" width="25" style="2" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
     <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
@@ -6425,39 +6583,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="29"/>
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="44"/>
       <c r="C2" s="3" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="14"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -6473,67 +6631,67 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6541,58 +6699,58 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>405</v>
+        <v>185</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>10</v>
@@ -6601,181 +6759,203 @@
         <v>4</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="67" t="s">
+      <c r="V9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" s="5" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="67" t="s">
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="N10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="R10" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>281</v>
-      </c>
-      <c r="T10" s="67" t="s">
+      <c r="P10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="67" t="s">
+      <c r="U10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="67" t="s">
-        <v>109</v>
-      </c>
+      <c r="V10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>10</v>
@@ -6784,19 +6964,19 @@
         <v>10</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>10</v>
@@ -6805,7 +6985,7 @@
         <v>4</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6813,58 +6993,58 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>413</v>
+        <v>210</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>10</v>
@@ -6873,7 +7053,7 @@
         <v>4</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6881,58 +7061,58 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>415</v>
+        <v>206</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>10</v>
@@ -6941,7 +7121,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6949,58 +7129,58 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>405</v>
+        <v>188</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>413</v>
+        <v>210</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>10</v>
@@ -7009,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7017,58 +7197,58 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>422</v>
+        <v>206</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>10</v>
@@ -7077,7 +7257,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -7085,37 +7265,37 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>10</v>
@@ -7124,19 +7304,19 @@
         <v>10</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>427</v>
+        <v>206</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>10</v>
@@ -7145,66 +7325,66 @@
         <v>4</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>433</v>
+        <v>206</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>10</v>
@@ -7213,254 +7393,317 @@
         <v>4</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="11.25" customHeight="1">
-      <c r="B20" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="68" t="s">
-        <v>489</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="11.25" customHeight="1">
+      <c r="B20" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-    </row>
-    <row r="21" spans="1:35" ht="11.25" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" ht="11.25" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-    </row>
-    <row r="22" spans="1:35" ht="11.25" customHeight="1">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:36" ht="11.25" customHeight="1">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-    </row>
-    <row r="23" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>485</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>484</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>491</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>492</v>
-      </c>
-      <c r="M23" s="45" t="s">
-        <v>493</v>
-      </c>
-      <c r="N23" s="45" t="s">
-        <v>494</v>
-      </c>
-      <c r="O23" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="P23" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q23" s="51" t="s">
-        <v>497</v>
+      <c r="AJ22" s="2"/>
+    </row>
+    <row r="23" spans="1:36" ht="11.25" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>419</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>498</v>
+        <v>420</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="V23" s="49" t="s">
+        <v>430</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="51"/>
+      <c r="AJ23" s="2"/>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="50"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="49"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="51"/>
+      <c r="AJ24" s="2"/>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="50"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="49"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="51"/>
+      <c r="AJ25" s="2"/>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="50"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="49"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="51"/>
+      <c r="AJ26" s="2"/>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
       <c r="R27" s="50"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="49"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-    </row>
-    <row r="28" spans="1:35">
-      <c r="R28" s="50"/>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="I29" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="R29" s="50"/>
-    </row>
-    <row r="30" spans="1:35" ht="191.25">
-      <c r="I30" s="21" t="s">
-        <v>488</v>
+      <c r="AJ27" s="2"/>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="R28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="V28" s="49"/>
+    </row>
+    <row r="29" spans="1:36">
+      <c r="K29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" s="69"/>
+      <c r="T29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V29" s="49"/>
+    </row>
+    <row r="30" spans="1:36" ht="191.25">
+      <c r="K30" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="T30" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="U30" s="70" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="R23:R29"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="K20:Q22"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
+  <mergeCells count="32">
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="E20:J22"/>
     <mergeCell ref="J23:J27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E20:I22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="S23:S27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:F4"/>
@@ -7468,191 +7711,24 @@
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="F23:F27"/>
+    <mergeCell ref="L20:R22"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(C2,",")</f>
-        <v>CD_CIA,</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D19" si="0">CONCATENATE(C3,",")</f>
-        <v>CD_CHAVE_PRIMARIA,</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>NR_TITULO,</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>SQ_DOCUMENTO,</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>NR_MOVIMENTO,</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>DT_LIQUIDACAO_TITULO,</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>VL_PAGAMENTO,</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>NR_MOVIMENTO,</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>NR_PROGRAMACAO,</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>CD_TRANSACAO_DOCUMENTO,</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>CD_TIPO_PAGAMENTO,</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>DT_TRANSACAO,</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>IN_ENTRADA_SAIDA,</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>VL_TRANSACAO,</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>CD_TIPO_MOVIMENTO,</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>NR_TITULO_REFERENCIA,</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>DT_SITUACAO,</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="str">
-        <f>CONCATENATE(C19,",")</f>
-        <v>DT_ATUALIZACAO,</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId5"/>
     <sheet name="stg_cap_titulo_reversao" sheetId="100" r:id="rId6"/>
     <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId7"/>
+    <sheet name="stg_cap_conciliacao_CAP_CAR" sheetId="101" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="539">
   <si>
     <t>1</t>
   </si>
@@ -1586,6 +1587,138 @@
   </si>
   <si>
     <t>Informar nos campos "Tipo Trans" e "Número do Documento" as informações desejadas e ir com a setinha de avanço até encontrar o registro, pois a view não tem o Cód Parceiro</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_conciliacao_CAP_CAR</t>
+  </si>
+  <si>
+    <t>CD_TP_TRANSACAO_BAIXA</t>
+  </si>
+  <si>
+    <t>NR_TRANSACAO_BAIXA</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>VL_VALOR</t>
+  </si>
+  <si>
+    <t>CD_TP_TRANSACAO_REVERSAO</t>
+  </si>
+  <si>
+    <t>NR_TRANSACAO_REVERSAO</t>
+  </si>
+  <si>
+    <t>DT_BAIXA</t>
+  </si>
+  <si>
+    <t>ENC</t>
+  </si>
+  <si>
+    <t>PFA65</t>
+  </si>
+  <si>
+    <t>2014-06-14 00:00:00.000</t>
+  </si>
+  <si>
+    <t>RE4</t>
+  </si>
+  <si>
+    <t>RE415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Parceiro de Negócios" </t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Doc. Baixa"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Número do Documento"</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do Doc.Baixa desejado. Pegar a informação da coluna "Tipo de Transação"</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do Doc.Baixa desejado. Pegar a informação da coluna "No. Documento"</t>
+  </si>
+  <si>
+    <t>PFA206</t>
+  </si>
+  <si>
+    <t>2014-07-08 00:00:00.000</t>
+  </si>
+  <si>
+    <t>RE488</t>
+  </si>
+  <si>
+    <t>AFA4</t>
+  </si>
+  <si>
+    <t>2014-07-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2014-07-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>FAT198</t>
+  </si>
+  <si>
+    <t>FAT212</t>
+  </si>
+  <si>
+    <t>PKK</t>
+  </si>
+  <si>
+    <t>PKK28</t>
+  </si>
+  <si>
+    <t>RKL</t>
+  </si>
+  <si>
+    <t>RKL4</t>
+  </si>
+  <si>
+    <t>PKK29</t>
+  </si>
+  <si>
+    <t>2014-07-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do Doc.Baixa desejado. Pegar a informação da coluna "Valor" [as transações de Pagamento virão negativas na view]</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do Doc.Baixa desejado. Pegar a informação da coluna "Tipo de Transação de Reversão"</t>
+  </si>
+  <si>
+    <t>Pedir o detalhamento do Doc.Baixa desejado. Pegar a informação da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>É a junção das informações das colunas "Tipo de Transação" com o "No. Documento"</t>
+  </si>
+  <si>
+    <t>Na Lupinha, pedir o filtro do CD_TIPO_TRANSACAO_BAIXA desejado. Pedir o detalhamento do  Nr Transação de Baixa desejado. Pegar a informação da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Na Lupinha, pedir o filtro do CD_TIPO_TRANSACAO_REVERSAO desejado. Pedir o detalhamento do  Nr Transação de Reversão desejado. Pegar a informação da coluna "Documento"</t>
+  </si>
+  <si>
+    <t>Sessão tfgld1504m000</t>
+  </si>
+  <si>
+    <t>znacrc217m000 e tfgld1504m000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   znacrc217m000 [Digitar o CD_PARCEIRO na caixa "Parceiro de Negócios" e pedir para filtrar os dados]</t>
+  </si>
+  <si>
+    <t>stg_cap_conciliacao_CAP_CAR</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1950,6 +2083,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1958,7 +2117,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2029,10 +2188,35 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,10 +2228,40 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,58 +2291,10 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2143,20 +2309,8 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2185,10 +2339,42 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2199,8 +2385,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -2537,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2588,10 +2774,16 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="91" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="92"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2600,6 +2792,7 @@
     <hyperlink ref="B4" location="stg_cap_titulo_reembolso!A1" display="stg_cap_titulo_reembolso"/>
     <hyperlink ref="B5" location="stg_cap_titulo_referencia!A1" display="stg_cap_titulo_referencia"/>
     <hyperlink ref="B6" location="stg_cap_titulo_reversao!A1" display="stg_cap_titulo_reversao"/>
+    <hyperlink ref="B8" location="stg_cap_conciliacao_CAP_CAR!A1" display="stg_cap_conciliacao_CAP_CAR"/>
     <hyperlink ref="B7" location="stg_cap_titulo_pgto!A1" display="stg_cap_titulo_pgto"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2613,8 +2806,8 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F27"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2656,32 +2849,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
@@ -3811,364 +4004,364 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="53" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="53" t="s">
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="34" t="s">
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="AD20" s="34"/>
+      <c r="AD20" s="32"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="53" t="s">
         <v>255</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="P23" s="46" t="s">
+      <c r="P23" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="U23" s="59" t="s">
+      <c r="U23" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="V23" s="49" t="s">
+      <c r="V23" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="W23" s="52" t="s">
+      <c r="W23" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="X23" s="49" t="s">
+      <c r="X23" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="Y23" s="33" t="s">
+      <c r="Y23" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="Z23" s="33" t="s">
+      <c r="Z23" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="AA23" s="33" t="s">
+      <c r="AA23" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="AB23" s="33" t="s">
+      <c r="AB23" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AC23" s="33" t="s">
+      <c r="AC23" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AD23" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="AE23" s="33" t="s">
+      <c r="AE23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="33" t="s">
+      <c r="AF23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="33" t="s">
+      <c r="AG23" s="31" t="s">
         <v>272</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="51"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
+      <c r="A26" s="53"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="51"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
+      <c r="A27" s="53"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="49"/>
-      <c r="Q28" s="33"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
+      <c r="O28" s="45"/>
+      <c r="Q28" s="31"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
     </row>
     <row r="29" spans="1:34">
       <c r="G29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="49"/>
-      <c r="Q29" s="50"/>
+      <c r="O29" s="45"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="25" t="s">
         <v>85</v>
       </c>
@@ -4178,15 +4371,15 @@
       <c r="T29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="49"/>
+      <c r="V29" s="45"/>
       <c r="W29" s="26"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="24" t="s">
@@ -4206,6 +4399,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="O23:O29"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="M23:M27"/>
     <mergeCell ref="AE23:AE27"/>
@@ -4222,29 +4438,6 @@
     <mergeCell ref="X23:X29"/>
     <mergeCell ref="Y23:Y29"/>
     <mergeCell ref="Z23:Z29"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="O23:O29"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4287,34 +4480,34 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
@@ -4944,26 +5137,26 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="28" t="s">
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q20" s="32" t="s">
         <v>95</v>
       </c>
       <c r="R20" s="2"/>
@@ -4971,136 +5164,136 @@
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="34"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="34"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="33"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="31"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="18" t="s">
@@ -5123,11 +5316,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -5142,12 +5336,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5162,7 +5355,7 @@
   </sheetPr>
   <dimension ref="A2:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -5205,33 +5398,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -5497,126 +5690,126 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="65" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="62" t="s">
+      <c r="I18" s="68"/>
+      <c r="J18" s="65" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="63"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="45" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="33"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="49"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="33"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="49"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="33"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="49"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="J27" s="49"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="J28" s="49"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="J29" s="49"/>
+      <c r="J29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5665,20 +5858,20 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>148</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>153</v>
       </c>
@@ -5872,60 +6065,60 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="63" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="39" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5951,7 +6144,7 @@
   </sheetPr>
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -5973,46 +6166,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
@@ -6433,87 +6626,89 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="31" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="K21:K24"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="A4:I5"/>
@@ -6527,8 +6722,6 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6583,32 +6776,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
@@ -7397,38 +7590,38 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="71" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="66" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="67" t="s">
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="79" t="s">
         <v>422</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U20" s="32" t="s">
         <v>428</v>
       </c>
       <c r="AH20" s="2"/>
@@ -7436,120 +7629,120 @@
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="S23" s="33" t="s">
+      <c r="S23" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="U23" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="V23" s="49" t="s">
+      <c r="V23" s="45" t="s">
         <v>430</v>
       </c>
       <c r="AH23" s="2"/>
@@ -7557,144 +7750,160 @@
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="49"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="45"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="49"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="45"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="49"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="45"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="49"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="45"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36">
-      <c r="R28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="V28" s="49"/>
+      <c r="R28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="V28" s="45"/>
     </row>
     <row r="29" spans="1:36">
       <c r="K29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="69"/>
+      <c r="R29" s="28"/>
       <c r="T29" s="27" t="s">
         <v>85</v>
       </c>
       <c r="U29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="49"/>
+      <c r="V29" s="45"/>
     </row>
     <row r="30" spans="1:36" ht="191.25">
       <c r="K30" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="T30" s="70" t="s">
+      <c r="T30" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="U30" s="70" t="s">
+      <c r="U30" s="29" t="s">
         <v>427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="U20:U22"/>
     <mergeCell ref="U23:U27"/>
@@ -7704,31 +7913,696 @@
     <mergeCell ref="T20:T22"/>
     <mergeCell ref="T23:T27"/>
     <mergeCell ref="S23:S27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
     <mergeCell ref="L20:R22"/>
     <mergeCell ref="M23:M27"/>
     <mergeCell ref="N23:N27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AG27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="82" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="21" style="82" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="82" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="82" customWidth="1"/>
+    <col min="11" max="11" width="24" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
+      <c r="A2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
+      <c r="A3" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>502</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="84">
+        <v>1</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="84">
+        <v>15</v>
+      </c>
+      <c r="F8" s="85">
+        <v>50000000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="84">
+        <v>0</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>506</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="84"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="84">
+        <v>1</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="84">
+        <v>65</v>
+      </c>
+      <c r="F9" s="85">
+        <v>-50000000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="84">
+        <v>0</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>506</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="84">
+        <v>21</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="84">
+        <v>206</v>
+      </c>
+      <c r="F10" s="85">
+        <v>-10000000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H10" s="84">
+        <v>22</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="L10" s="84"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="84">
+        <v>21</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>507</v>
+      </c>
+      <c r="E11" s="84">
+        <v>88</v>
+      </c>
+      <c r="F11" s="85">
+        <v>10000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" s="84">
+        <v>22</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" s="84">
+        <v>26</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="84">
+        <v>4</v>
+      </c>
+      <c r="F12" s="85">
+        <v>-11000000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="84">
+        <v>42</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" s="84"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="84">
+        <v>26</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="84">
+        <v>198</v>
+      </c>
+      <c r="F13" s="85">
+        <v>10000000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="84">
+        <v>42</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="84">
+        <v>26</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="E14" s="84">
+        <v>212</v>
+      </c>
+      <c r="F14" s="85">
+        <v>1000000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" s="84">
+        <v>42</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="L14" s="84"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="84">
+        <v>37</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="84">
+        <v>28</v>
+      </c>
+      <c r="F15" s="85">
+        <v>-300000000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="84">
+        <v>0</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="84"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="84">
+        <v>37</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="84">
+        <v>4</v>
+      </c>
+      <c r="F16" s="85">
+        <v>300000000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="84">
+        <v>0</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>526</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="84"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="84">
+        <v>40</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="84">
+        <v>29</v>
+      </c>
+      <c r="F17" s="85">
+        <v>-300000000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H17" s="84">
+        <v>41</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>527</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="L17" s="84"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="86"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="90" t="s">
+        <v>535</v>
+      </c>
+      <c r="K19" s="90"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+    </row>
+    <row r="22" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A22" s="87" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>531</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="A19:I21"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="539">
   <si>
     <t>1</t>
   </si>
@@ -2117,7 +2117,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2168,9 +2168,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2195,7 +2192,52 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,31 +2279,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,12 +2310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,24 +2363,8 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2373,8 +2372,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2725,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2774,13 +2771,13 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>538</v>
       </c>
       <c r="C8" s="11"/>
@@ -2806,8 +2803,8 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C27"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2849,32 +2846,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
@@ -4004,401 +4001,429 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="33" t="s">
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="32" t="s">
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="AD20" s="32"/>
+      <c r="AD20" s="48"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="46" t="s">
+      <c r="N23" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="P23" s="49" t="s">
+      <c r="P23" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="Q23" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="R23" s="31" t="s">
+      <c r="R23" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="T23" s="39" t="s">
+      <c r="T23" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="U23" s="42" t="s">
+      <c r="U23" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="V23" s="45" t="s">
+      <c r="V23" s="43" t="s">
         <v>373</v>
       </c>
       <c r="W23" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="X23" s="45" t="s">
+      <c r="X23" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="Y23" s="31" t="s">
+      <c r="Y23" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="Z23" s="31" t="s">
+      <c r="Z23" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="AA23" s="31" t="s">
+      <c r="AA23" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="AB23" s="31" t="s">
+      <c r="AB23" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AC23" s="31" t="s">
+      <c r="AC23" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="AD23" s="31" t="s">
+      <c r="AD23" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AE23" s="31" t="s">
+      <c r="AE23" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="31" t="s">
+      <c r="AF23" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="31" t="s">
+      <c r="AG23" s="42" t="s">
         <v>272</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="43"/>
       <c r="W24" s="47"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="53"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="43"/>
       <c r="W25" s="47"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="53"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="45"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="43"/>
       <c r="W26" s="47"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="53"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="43"/>
       <c r="W27" s="47"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="45"/>
-      <c r="Q28" s="31"/>
-      <c r="V28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="Q28" s="42"/>
+      <c r="V28" s="43"/>
       <c r="W28" s="47"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="25" t="s">
+      <c r="O29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="T29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="45"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="R30" s="23" t="s">
+      <c r="R30" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S30" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="22" t="s">
         <v>270</v>
       </c>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="22"/>
+      <c r="AD30" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -4415,29 +4440,6 @@
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="AG23:AG27"/>
-    <mergeCell ref="C20:X22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="AA20:AB22"/>
-    <mergeCell ref="AC20:AD22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="AF23:AF27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="X23:X29"/>
-    <mergeCell ref="Y23:Y29"/>
-    <mergeCell ref="Z23:Z29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4480,34 +4482,34 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
@@ -5137,26 +5139,26 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="54" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="63" t="s">
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="48" t="s">
         <v>95</v>
       </c>
       <c r="R20" s="2"/>
@@ -5164,136 +5166,136 @@
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="32"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="32"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="48"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="31" t="s">
+      <c r="R23" s="42" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="31"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="31"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="18" t="s">
@@ -5307,21 +5309,20 @@
       <c r="K28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="P28" s="22"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="20"/>
-      <c r="R28" s="22"/>
+      <c r="R28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -5336,11 +5337,12 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5398,33 +5400,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -5690,126 +5692,126 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="68" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="65" t="s">
+      <c r="I18" s="75"/>
+      <c r="J18" s="72" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="66"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="67"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="43" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="31"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="45"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="31"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="31"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="45"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="J27" s="45"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="J28" s="45"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="J29" s="45"/>
+      <c r="J29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5858,20 +5860,20 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>148</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>153</v>
       </c>
@@ -6065,60 +6067,60 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="63" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="61" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="63"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="55" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6166,46 +6168,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
@@ -6626,84 +6628,84 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="42" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6776,32 +6778,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
@@ -7590,38 +7592,38 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="70" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="81" t="s">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="79" t="s">
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="48" t="s">
         <v>428</v>
       </c>
       <c r="AH20" s="2"/>
@@ -7629,120 +7631,120 @@
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="Q23" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="R23" s="46" t="s">
+      <c r="R23" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="S23" s="31" t="s">
+      <c r="S23" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="T23" s="31" t="s">
+      <c r="T23" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="V23" s="45" t="s">
+      <c r="V23" s="43" t="s">
         <v>430</v>
       </c>
       <c r="AH23" s="2"/>
@@ -7750,160 +7752,144 @@
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="45"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="45"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="43"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="45"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="43"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="45"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36">
-      <c r="R28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="V28" s="45"/>
+      <c r="R28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="V28" s="43"/>
     </row>
     <row r="29" spans="1:36">
       <c r="K29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="T29" s="27" t="s">
+      <c r="R29" s="27"/>
+      <c r="T29" s="26" t="s">
         <v>85</v>
       </c>
       <c r="U29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="45"/>
+      <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:36" ht="191.25">
       <c r="K30" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="T30" s="29" t="s">
+      <c r="T30" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="U30" s="28" t="s">
         <v>427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="U20:U22"/>
     <mergeCell ref="U23:U27"/>
@@ -7920,6 +7906,22 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7933,31 +7935,31 @@
   </sheetPr>
   <dimension ref="A2:AG27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="82" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="82" customWidth="1"/>
-    <col min="3" max="3" width="21" style="82" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="82" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="82" customWidth="1"/>
-    <col min="11" max="11" width="24" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="82"/>
+    <col min="8" max="8" width="22.5703125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="30" customWidth="1"/>
+    <col min="11" max="11" width="24" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>495</v>
       </c>
@@ -7993,10 +7995,10 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>536</v>
       </c>
@@ -8035,557 +8037,562 @@
       <c r="A7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="31" t="s">
         <v>500</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="K7" s="83" t="s">
+      <c r="K7" s="31" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="32">
         <v>15</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="33">
         <v>50000000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="84">
-        <v>0</v>
-      </c>
-      <c r="I8" s="84" t="s">
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="32">
         <v>1</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="32">
         <v>65</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="33">
         <v>-50000000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="84">
-        <v>0</v>
-      </c>
-      <c r="I9" s="84" t="s">
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="84"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="32">
         <v>21</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="32">
         <v>206</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="33">
         <v>-10000000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="32">
         <v>22</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="L10" s="84"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="32">
         <v>21</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="32">
         <v>88</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="33">
         <v>10000000</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="32">
         <v>22</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="L11" s="84"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="32">
         <v>26</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="32">
         <v>4</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="33">
         <v>-11000000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="32">
         <v>42</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="32">
         <v>26</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="32">
         <v>198</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="33">
         <v>10000000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="32">
         <v>42</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K13" s="84" t="s">
+      <c r="K13" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="32">
         <v>26</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="32">
         <v>212</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="33">
         <v>1000000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="32">
         <v>42</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="L14" s="84"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="32">
         <v>37</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="32">
         <v>28</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="33">
         <v>-300000000</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H15" s="84">
-        <v>0</v>
-      </c>
-      <c r="I15" s="84" t="s">
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="J15" s="84" t="s">
+      <c r="J15" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K15" s="84" t="s">
+      <c r="K15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="32">
         <v>37</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="32" t="s">
         <v>525</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="32">
         <v>4</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="33">
         <v>300000000</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="84">
-        <v>0</v>
-      </c>
-      <c r="I16" s="84" t="s">
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="84"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="32">
         <v>40</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="32">
         <v>29</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="33">
         <v>-300000000</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="32">
         <v>41</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="K17" s="84" t="s">
+      <c r="K17" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="L17" s="84"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="86"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="K19" s="90"/>
-      <c r="L19" s="84"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="89" t="s">
         <v>512</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="89" t="s">
         <v>529</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="89" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
     <mergeCell ref="K22:K27"/>
     <mergeCell ref="A19:I21"/>
     <mergeCell ref="J19:K21"/>
@@ -8595,11 +8602,6 @@
     <mergeCell ref="I22:I27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="J22:J27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
     <mergeCell ref="D22:D27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_cap_titulo" sheetId="95" r:id="rId2"/>
-    <sheet name="stg_cap_titulo_mvmto" sheetId="33" r:id="rId3"/>
-    <sheet name="stg_cap_titulo_reembolso" sheetId="96" r:id="rId4"/>
-    <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId5"/>
-    <sheet name="stg_cap_titulo_reversao" sheetId="100" r:id="rId6"/>
-    <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId7"/>
-    <sheet name="stg_cap_conciliacao_CAP_CAR" sheetId="101" r:id="rId8"/>
+    <sheet name="stg_cap_conciliacao_CAP_CAR" sheetId="101" r:id="rId2"/>
+    <sheet name="stg_cap_titulo" sheetId="95" r:id="rId3"/>
+    <sheet name="stg_cap_titulo_lancamento" sheetId="102" r:id="rId4"/>
+    <sheet name="stg_cap_titulo_mvmto" sheetId="33" r:id="rId5"/>
+    <sheet name="stg_cap_titulo_pgto" sheetId="98" r:id="rId6"/>
+    <sheet name="stg_cap_titulo_reembolso" sheetId="96" r:id="rId7"/>
+    <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId8"/>
+    <sheet name="stg_cap_titulo_reversao" sheetId="100" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="592">
   <si>
     <t>1</t>
   </si>
@@ -881,9 +882,6 @@
   </si>
   <si>
     <t>tfacp2520m000, tfcmg0511m000, tfcmg0510m000, tdrecl504m00l</t>
-  </si>
-  <si>
-    <t>Sessão tdrecl504m00l</t>
   </si>
   <si>
     <t>dbo.stg_cap_titulo_reembolso</t>
@@ -1719,6 +1717,168 @@
   </si>
   <si>
     <t>stg_cap_conciliacao_CAP_CAR</t>
+  </si>
+  <si>
+    <t>stg_cap_titulo_lancamento</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_titulo_lancamento</t>
+  </si>
+  <si>
+    <t>DS_TIPO_LANCAMENTO</t>
+  </si>
+  <si>
+    <t>IN_DEBITO_CREDITO</t>
+  </si>
+  <si>
+    <t>VL_LANCAMENTO</t>
+  </si>
+  <si>
+    <t>CD_CONTA_CONTABIL</t>
+  </si>
+  <si>
+    <t>DS_CONTA_CONTABIL</t>
+  </si>
+  <si>
+    <t>NR_LINHA</t>
+  </si>
+  <si>
+    <t>DS_TIPO_IMPOSTO</t>
+  </si>
+  <si>
+    <t>Mercadoria</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>90.7500</t>
+  </si>
+  <si>
+    <t>110501002</t>
+  </si>
+  <si>
+    <t>MERCADORIAS P/ REVENDA</t>
+  </si>
+  <si>
+    <t>Imposto</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>110303005</t>
+  </si>
+  <si>
+    <t>COFINS A RECUPERAR</t>
+  </si>
+  <si>
+    <t>COFINS</t>
+  </si>
+  <si>
+    <t>1.6500</t>
+  </si>
+  <si>
+    <t>110303003</t>
+  </si>
+  <si>
+    <t>PIS A RECUPERAR</t>
+  </si>
+  <si>
+    <t>PIS</t>
+  </si>
+  <si>
+    <t>Conta controle</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>210301001</t>
+  </si>
+  <si>
+    <t>FORNECEDORES - REVENDA</t>
+  </si>
+  <si>
+    <t>AFA10</t>
+  </si>
+  <si>
+    <t>2512.4900</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>210.0100</t>
+  </si>
+  <si>
+    <t>110303001</t>
+  </si>
+  <si>
+    <t>ICMS A RECUPERAR</t>
+  </si>
+  <si>
+    <t>ICMS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>Dif. arredondamento</t>
+  </si>
+  <si>
+    <t>330101001</t>
+  </si>
+  <si>
+    <t>VARIAÇÕES CAMBIAIS PASSIVAS</t>
+  </si>
+  <si>
+    <t>3000.0000</t>
+  </si>
+  <si>
+    <t>Sessão tfacp2520m000 (Invoice-from business partner open entries)</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m00l (Recebimento Fiscal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na coluna documento, informar os dados na segunda e terceira coluna </t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Referência Fiscal</t>
+  </si>
+  <si>
+    <t>tdrecl412m00l (Imprimir integração financeira) - informar a referência fiscal e pedir a apresentação na tela</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tipo de Lançamento</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Débito/Crédito</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Valor (BRL)</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Conta Contábil</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Tipo de Imposto</t>
+  </si>
+  <si>
+    <t>R00000026</t>
+  </si>
+  <si>
+    <t>Sessão tfgld0508m000 (Plano de Contas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar o CD_CONTA_CONTABIL na primeira coluna de "Conta Contábil" e pegar a segunda informação da coluna </t>
+  </si>
+  <si>
+    <t>tdrecl504m00l, tdrecl412m00l e tfgld0508m000</t>
+  </si>
+  <si>
+    <t>REF_FISCAL [não tem na tabela, mas precisamos dela para consultar os lançamentos]</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1963,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,8 +1988,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2083,32 +2249,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2117,7 +2257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2208,8 +2348,60 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2222,61 +2414,34 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2285,33 +2450,6 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,6 +2509,60 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2391,6 +2583,51 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21659850" y="4286250"/>
+          <a:ext cx="3152775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2720,11 +2957,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2742,25 +2977,25 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="10" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2771,28 +3006,36 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="37"/>
+      <c r="B7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="stg_cap_titulo!A1" display="stg_cap_titulo"/>
-    <hyperlink ref="B3" location="stg_cap_titulo_mvmto!A1" display="stg_cap_titulo_mvmto"/>
-    <hyperlink ref="B4" location="stg_cap_titulo_reembolso!A1" display="stg_cap_titulo_reembolso"/>
-    <hyperlink ref="B5" location="stg_cap_titulo_referencia!A1" display="stg_cap_titulo_referencia"/>
-    <hyperlink ref="B6" location="stg_cap_titulo_reversao!A1" display="stg_cap_titulo_reversao"/>
-    <hyperlink ref="B8" location="stg_cap_conciliacao_CAP_CAR!A1" display="stg_cap_conciliacao_CAP_CAR"/>
-    <hyperlink ref="B7" location="stg_cap_titulo_pgto!A1" display="stg_cap_titulo_pgto"/>
+    <hyperlink ref="B3" location="stg_cap_titulo!A1" display="stg_cap_titulo"/>
+    <hyperlink ref="B5" location="stg_cap_titulo_mvmto!A1" display="stg_cap_titulo_mvmto"/>
+    <hyperlink ref="B7" location="stg_cap_titulo_reembolso!A1" display="stg_cap_titulo_reembolso"/>
+    <hyperlink ref="B8" location="stg_cap_titulo_referencia!A1" display="stg_cap_titulo_referencia"/>
+    <hyperlink ref="B9" location="stg_cap_titulo_reversao!A1" display="stg_cap_titulo_reversao"/>
+    <hyperlink ref="B2" location="stg_cap_conciliacao_CAP_CAR!A1" display="stg_cap_conciliacao_CAP_CAR"/>
+    <hyperlink ref="B6" location="stg_cap_titulo_pgto!A1" display="stg_cap_titulo_pgto"/>
+    <hyperlink ref="B4" location="stg_cap_titulo_lancamento!A1" display="stg_cap_titulo_lancamento"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2801,11 +3044,688 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A2:AG27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="30" customWidth="1"/>
+    <col min="11" max="11" width="24" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
+      <c r="A3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="32">
+        <v>15</v>
+      </c>
+      <c r="F8" s="33">
+        <v>50000000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="32">
+        <v>65</v>
+      </c>
+      <c r="F9" s="33">
+        <v>-50000000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="32">
+        <v>21</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="32">
+        <v>206</v>
+      </c>
+      <c r="F10" s="33">
+        <v>-10000000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="32">
+        <v>22</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" s="32">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="32">
+        <v>88</v>
+      </c>
+      <c r="F11" s="33">
+        <v>10000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" s="32">
+        <v>22</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="32">
+        <v>26</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="32">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33">
+        <v>-11000000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H12" s="32">
+        <v>42</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="32">
+        <v>26</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="E13" s="32">
+        <v>198</v>
+      </c>
+      <c r="F13" s="33">
+        <v>10000000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H13" s="32">
+        <v>42</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="32">
+        <v>26</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="32">
+        <v>212</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H14" s="32">
+        <v>42</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="32">
+        <v>37</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="32">
+        <v>28</v>
+      </c>
+      <c r="F15" s="33">
+        <v>-300000000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="32">
+        <v>37</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="E16" s="32">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33">
+        <v>300000000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="32">
+        <v>40</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" s="32">
+        <v>29</v>
+      </c>
+      <c r="F17" s="33">
+        <v>-300000000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" s="32">
+        <v>41</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89" t="s">
+        <v>534</v>
+      </c>
+      <c r="K19" s="89"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+    </row>
+    <row r="22" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A22" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>531</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>528</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>532</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="A19:I21"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2846,32 +3766,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
@@ -4001,368 +4921,368 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="49" t="s">
+      <c r="C20" s="90" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD20" s="38"/>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1">
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1">
+      <c r="A23" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="O23" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="U23" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="V23" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="W23" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="X23" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y23" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="49" t="s">
+      <c r="Z23" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA23" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD20" s="48"/>
-    </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-    </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="S23" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="T23" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="U23" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="V23" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="W23" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="X23" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y23" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z23" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA23" s="42" t="s">
+      <c r="AB23" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AC23" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD23" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="AC23" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD23" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE23" s="42" t="s">
+      <c r="AE23" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="42" t="s">
+      <c r="AF23" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="42" t="s">
+      <c r="AG23" s="37" t="s">
         <v>272</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="43"/>
-      <c r="Q28" s="42"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
+      <c r="O28" s="51"/>
+      <c r="Q28" s="37"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
     </row>
     <row r="29" spans="1:34">
       <c r="G29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="Q29" s="44"/>
+      <c r="O29" s="51"/>
+      <c r="Q29" s="52"/>
       <c r="R29" s="24" t="s">
         <v>85</v>
       </c>
@@ -4372,15 +5292,15 @@
       <c r="T29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="43"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="23" t="s">
@@ -4400,30 +5320,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="AG23:AG27"/>
-    <mergeCell ref="C20:X22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="AA20:AB22"/>
-    <mergeCell ref="AC20:AD22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="AF23:AF27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="X23:X29"/>
-    <mergeCell ref="Y23:Y29"/>
-    <mergeCell ref="Z23:Z29"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -4440,13 +5336,609 @@
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AC26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="51.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="21">
+      <c r="A3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="7" spans="1:29" ht="38.25" customHeight="1">
+      <c r="A7" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>547</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>549</v>
+      </c>
+      <c r="I8" s="107" t="s">
+        <v>550</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>551</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>556</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" s="107" t="s">
+        <v>554</v>
+      </c>
+      <c r="J9" s="107" t="s">
+        <v>555</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>560</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>548</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>557</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>559</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>561</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>562</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>563</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>564</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="C18" s="1"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="101" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="71"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="72"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="R26" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4482,34 +5974,34 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
@@ -4705,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -4723,19 +6215,19 @@
         <v>69</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>223</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -4749,10 +6241,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -4779,16 +6271,16 @@
         <v>69</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>237</v>
@@ -4985,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
@@ -4997,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>2</v>
@@ -5012,10 +6504,10 @@
         <v>10</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -5029,7 +6521,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>191</v>
@@ -5041,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>1</v>
@@ -5059,7 +6551,7 @@
         <v>34</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>2</v>
@@ -5068,10 +6560,10 @@
         <v>10</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5085,10 +6577,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -5103,7 +6595,7 @@
         <v>185</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -5121,13 +6613,13 @@
         <v>185</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5139,26 +6631,26 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q20" s="48" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q20" s="38" t="s">
         <v>95</v>
       </c>
       <c r="R20" s="2"/>
@@ -5166,136 +6658,136 @@
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="48"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="38"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="48"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="38"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="55" t="s">
+      <c r="O23" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q23" s="55" t="s">
+      <c r="P23" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q23" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="42"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="42"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="18" t="s">
@@ -5310,7 +6802,7 @@
         <v>86</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="20"/>
@@ -5318,11 +6810,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -5337,12 +6830,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5350,1387 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:AG29"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25" style="2" customWidth="1"/>
-    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="72" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="73"/>
-    </row>
-    <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="74"/>
-    </row>
-    <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="H24" s="42"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="H25" s="42"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="H26" s="42"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="J29" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="H18:I20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A18:G20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="61" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="61"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:L24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="A4:I5"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6778,32 +6890,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
@@ -6838,7 +6950,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -6847,16 +6959,16 @@
         <v>165</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>174</v>
@@ -6868,25 +6980,25 @@
         <v>177</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="S7" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="V7" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6924,16 +7036,16 @@
         <v>185</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>203</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>203</v>
@@ -6968,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -6980,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>41</v>
@@ -6992,16 +7104,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>203</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>203</v>
@@ -7071,7 +7183,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>10</v>
@@ -7126,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -7141,7 +7253,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>53</v>
@@ -7150,7 +7262,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>10</v>
@@ -7218,7 +7330,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>209</v>
@@ -7227,7 +7339,7 @@
         <v>210</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>203</v>
@@ -7256,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -7268,7 +7380,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
@@ -7286,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>209</v>
@@ -7295,7 +7407,7 @@
         <v>210</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>203</v>
@@ -7316,7 +7428,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -7324,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -7336,7 +7448,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
@@ -7345,7 +7457,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>41</v>
@@ -7354,7 +7466,7 @@
         <v>188</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>209</v>
@@ -7363,7 +7475,7 @@
         <v>210</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>203</v>
@@ -7384,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7404,25 +7516,25 @@
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>209</v>
@@ -7431,7 +7543,7 @@
         <v>210</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>203</v>
@@ -7452,7 +7564,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -7460,37 +7572,37 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>10</v>
@@ -7520,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -7528,7 +7640,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -7540,34 +7652,34 @@
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>203</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>203</v>
@@ -7588,273 +7700,273 @@
         <v>4</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="77" t="s">
-        <v>409</v>
-      </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="88" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="L20" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="T20" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>428</v>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="84" t="s">
+        <v>421</v>
+      </c>
+      <c r="T20" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>427</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" s="42" t="s">
+      <c r="H23" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="I23" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="U23" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="V23" s="51" t="s">
         <v>429</v>
-      </c>
-      <c r="K23" s="60" t="s">
-        <v>410</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="R23" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="S23" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="T23" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="U23" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="V23" s="43" t="s">
-        <v>430</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="43"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="51"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="51"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="51"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="43"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="51"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
@@ -7862,7 +7974,7 @@
     <row r="28" spans="1:36">
       <c r="R28" s="27"/>
       <c r="T28" s="27"/>
-      <c r="V28" s="43"/>
+      <c r="V28" s="51"/>
     </row>
     <row r="29" spans="1:36">
       <c r="K29" s="18" t="s">
@@ -7875,21 +7987,37 @@
       <c r="U29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="43"/>
+      <c r="V29" s="51"/>
     </row>
     <row r="30" spans="1:36" ht="191.25">
       <c r="K30" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="U20:U22"/>
     <mergeCell ref="U23:U27"/>
@@ -7906,22 +8034,491 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AG29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="70" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="72"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="H24" s="37"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="H25" s="37"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="H26" s="37"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="J29" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="H18:I20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A18:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7933,678 +8530,890 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AG27"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C27"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="21">
+      <c r="A3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A22" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="21" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="30" customWidth="1"/>
-    <col min="11" max="11" width="24" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21">
+      <c r="A3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="I7" s="31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A4" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="K7" s="31" t="s">
+      <c r="D8" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" s="32">
-        <v>15</v>
-      </c>
-      <c r="F8" s="33">
-        <v>50000000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="G9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="32">
-        <v>65</v>
-      </c>
-      <c r="F9" s="33">
-        <v>-50000000</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C10" s="32">
-        <v>21</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="32">
-        <v>206</v>
-      </c>
-      <c r="F10" s="33">
-        <v>-10000000</v>
+      <c r="K9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H10" s="32">
-        <v>22</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C11" s="32">
-        <v>21</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="E11" s="32">
-        <v>88</v>
-      </c>
-      <c r="F11" s="33">
-        <v>10000000</v>
+        <v>347</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H11" s="32">
-        <v>22</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="32">
-        <v>26</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="32">
-        <v>4</v>
-      </c>
-      <c r="F12" s="33">
-        <v>-11000000</v>
+        <v>347</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H12" s="32">
-        <v>42</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C13" s="32">
-        <v>26</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="E13" s="32">
-        <v>198</v>
-      </c>
-      <c r="F13" s="33">
-        <v>10000000</v>
+        <v>453</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H13" s="32">
-        <v>42</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="32">
-        <v>26</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="E14" s="32">
-        <v>212</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1000000</v>
+        <v>458</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H14" s="32">
-        <v>42</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="32">
-        <v>37</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="32">
-        <v>28</v>
-      </c>
-      <c r="F15" s="33">
-        <v>-300000000</v>
+        <v>458</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C16" s="32">
-        <v>37</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="E16" s="32">
-        <v>4</v>
-      </c>
-      <c r="F16" s="33">
-        <v>300000000</v>
+        <v>465</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="32"/>
+        <v>465</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C17" s="32">
-        <v>40</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="E17" s="32">
-        <v>29</v>
-      </c>
-      <c r="F17" s="33">
-        <v>-300000000</v>
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H17" s="32">
-        <v>41</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="L17" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="90" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91" t="s">
-        <v>535</v>
-      </c>
-      <c r="K19" s="91"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-    </row>
-    <row r="22" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A22" s="89" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>510</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>512</v>
-      </c>
-      <c r="E22" s="89" t="s">
-        <v>513</v>
-      </c>
-      <c r="F22" s="89" t="s">
-        <v>532</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>529</v>
-      </c>
-      <c r="H22" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="I22" s="89" t="s">
-        <v>531</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>533</v>
-      </c>
-      <c r="K22" s="89" t="s">
-        <v>534</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="A19:I21"/>
-    <mergeCell ref="J19:K21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A4:I5"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -16,13 +16,14 @@
     <sheet name="stg_cap_titulo_reembolso" sheetId="96" r:id="rId7"/>
     <sheet name="stg_cap_titulo_referencia" sheetId="94" r:id="rId8"/>
     <sheet name="stg_cap_titulo_reversao" sheetId="100" r:id="rId9"/>
+    <sheet name="Plan1" sheetId="103" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="593">
   <si>
     <t>1</t>
   </si>
@@ -324,9 +325,6 @@
     <t>Campo t$rcd_utc da tabela que não existe nas telas do LN</t>
   </si>
   <si>
-    <t>sessão tfacp6500m000</t>
-  </si>
-  <si>
     <t>O campo utilizado para a leitura desta informção não é visivel nas telas de consulta do LN.</t>
   </si>
   <si>
@@ -499,9 +497,6 @@
   </si>
   <si>
     <t>tdrecl547m50l, tdrecl505m50l</t>
-  </si>
-  <si>
-    <t>sessão tdrecl547m50l</t>
   </si>
   <si>
     <t>dbo.stg_cap_titulo</t>
@@ -878,9 +873,6 @@
     <t>Segundo o Fábio da INFOR, essa informação não virá nesta base, pois aqui só conseguimos tratar os dados de Atacado e Varejo</t>
   </si>
   <si>
-    <t>Sessão tfacp2520m000</t>
-  </si>
-  <si>
     <t>tfacp2520m000, tfcmg0511m000, tfcmg0510m000, tdrecl504m00l</t>
   </si>
   <si>
@@ -990,12 +982,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna Parceiro de Negócios</t>
-  </si>
-  <si>
-    <t>Sessão znslsc530m000</t>
-  </si>
-  <si>
-    <t>Sessão znslsc501m000</t>
   </si>
   <si>
     <t>Na lupinha informar a Cia, Unid Negócio e Pedido Cliente. Na tela, pedir o detalhamento da linha apresentada.
@@ -1144,13 +1130,6 @@
   </si>
   <si>
     <t>1024</t>
-  </si>
-  <si>
-    <t>Sessão tfacp2520m000 [no menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tfacp2523m000 
-[selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
     <t xml:space="preserve"> 'PLG' = 1
@@ -1258,18 +1237,12 @@
     <t>2014-06-20 19:24:45.000</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfcmg0511m000 [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
-  </si>
-  <si>
     <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e pegar a informação da coluna Agência</t>
   </si>
   <si>
     <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e  pegar a informação da coluna DAC Agência</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfcmg0510m000  [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
-  </si>
-  <si>
     <t>Informar no campo "Filial Bco" o "Cód Relação Bancária" e  pedir o detalhamento da linha apresentada.  Na aba Detalhes,  seção Detalhes do Banco Pegar a primeira informação do campo Conta Bancária</t>
   </si>
   <si>
@@ -1277,9 +1250,6 @@
   </si>
   <si>
     <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se estiver nulo, a view está buscando a informação "Valor" da sessão tfacp2520m000</t>
-  </si>
-  <si>
-    <t>Sessão tdsls4100m000 e tcemm0130m000</t>
   </si>
   <si>
     <t>znslsc530m000, znslsc501m000, tdsls4100m000,tcemm0130m000</t>
@@ -1293,9 +1263,6 @@
   </si>
   <si>
     <t>Pegar a informação da data do Documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tfacp2523m000  [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
     <t>Pegar a informação da coluna Modalidade de pagamento</t>
@@ -1320,12 +1287,6 @@
 17-GNRE e tributos com código de barras</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfacp1103m000  [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
-  </si>
-  <si>
-    <t>Sessão tfacp6500m000 [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
-  </si>
-  <si>
     <t>Na seção "Detalhe de Pagamento", pegar a informação "Método de Pgto"</t>
   </si>
   <si>
@@ -1348,9 +1309,6 @@
   </si>
   <si>
     <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, fazer o detalhamento e pegar a data da última alteração se o campo estornar pagamento estiver ticado.</t>
-  </si>
-  <si>
-    <t>Sessão tfcmgl300m00l</t>
   </si>
   <si>
     <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, pegar a informação "Status do envio"</t>
@@ -1368,9 +1326,6 @@
 </t>
   </si>
   <si>
-    <t>Sessão tfcmgd568m00d</t>
-  </si>
-  <si>
     <t>Filtrar pelo lote de pagamento do título que está sendo analisado. Pegar a informação existente na coluna "Status Lote de Pagamento"</t>
   </si>
   <si>
@@ -1385,9 +1340,6 @@
 qdo não tem dados, retorna 0</t>
   </si>
   <si>
-    <t>Sessão tfcmg1521m000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Na linha cujo Tipo de Documento é "Pagamento Normal", pegar a data do Documento </t>
   </si>
   <si>
@@ -1707,15 +1659,9 @@
     <t>Na Lupinha, pedir o filtro do CD_TIPO_TRANSACAO_REVERSAO desejado. Pedir o detalhamento do  Nr Transação de Reversão desejado. Pegar a informação da coluna "Documento"</t>
   </si>
   <si>
-    <t>Sessão tfgld1504m000</t>
-  </si>
-  <si>
     <t>znacrc217m000 e tfgld1504m000</t>
   </si>
   <si>
-    <t xml:space="preserve">   znacrc217m000 [Digitar o CD_PARCEIRO na caixa "Parceiro de Negócios" e pedir para filtrar os dados]</t>
-  </si>
-  <si>
     <t>stg_cap_conciliacao_CAP_CAR</t>
   </si>
   <si>
@@ -1879,6 +1825,64 @@
   </si>
   <si>
     <t>REF_FISCAL [não tem na tabela, mas precisamos dela para consultar os lançamentos]</t>
+  </si>
+  <si>
+    <t>Sessão "znacrc217m000" (Reversão de Encontro de Contas) [Digitar o CD_PARCEIRO na caixa "Parceiro de Negócios" e pedir para filtrar os dados]</t>
+  </si>
+  <si>
+    <t>Sessão "tfgld1504m000" (Histórico do Documento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0511m000 (Agências Bancárias) [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0510m000 (Relações Bancárias) [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t>Sessão tfacp2520m000 (Invoice - From Business Partner open entries) [no menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000 (Documentos relacionados ao pagamento por entrada aberta)
+[selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t>sessão tfacp6500m000 (Documentos relacionados ao Pagamento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2520m000 (Invoice - From Business Partner open entries) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000 (Documentos relacionados ao pagamento por entrada aberta) [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp1103m000 (Agenda de Pag.)  [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
+  </si>
+  <si>
+    <t>Sessão tfacp6500m000 (Documentos relacionados ao Pagamento) [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl300m00l (Estornar Documentos de Pagamento)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgd568m00d (Documentos EBF enviados ao Banco - Pagto)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg1521m000 (Números Lote p/procedimento Pagamento)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc530m000 (Controle de Faturamento)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000 (Pedido Venda Site - Linha)</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Venda) e tcemm0130m000 (Unidades Empresariais)</t>
+  </si>
+  <si>
+    <t>sessão tdrecl547m50l (Dados de Origem Linhas de Recebimento Fiscal - Sumário)</t>
+  </si>
+  <si>
+    <t>Sessão "znacpc501m000" (Links de Nota de Crédito Revertidos (Contas a Pagar))</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2261,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2333,9 +2337,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2348,33 +2349,96 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2393,29 +2457,26 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2444,19 +2505,28 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,104 +2535,59 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2977,49 +3002,49 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="10" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="10" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="10" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="29" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -3039,12 +3064,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AG27"/>
+  <dimension ref="A2:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3065,12 +3102,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3104,12 +3141,12 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3142,576 +3179,576 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
+    <row r="6" spans="1:33" s="107" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>424</v>
+      </c>
+    </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="6" t="s">
-        <v>158</v>
+      <c r="A7" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="31">
+        <v>15</v>
+      </c>
+      <c r="F7" s="32">
+        <v>50000000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="31">
+        <v>65</v>
+      </c>
+      <c r="F8" s="32">
+        <v>-50000000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="31">
+        <v>21</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="31">
+        <v>206</v>
+      </c>
+      <c r="F9" s="32">
+        <v>-10000000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="31">
+        <v>22</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="31">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="31">
+        <v>88</v>
+      </c>
+      <c r="F10" s="32">
+        <v>10000000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10" s="31">
+        <v>22</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" s="31">
+        <v>26</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="31">
+        <v>4</v>
+      </c>
+      <c r="F11" s="32">
+        <v>-11000000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="31">
+        <v>42</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="31">
+        <v>26</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="E12" s="31">
+        <v>198</v>
+      </c>
+      <c r="F12" s="32">
+        <v>10000000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="31">
+        <v>42</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="31">
+        <v>26</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="E13" s="31">
+        <v>212</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H13" s="31">
+        <v>42</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="31">
+        <v>37</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="31">
+        <v>28</v>
+      </c>
+      <c r="F14" s="32">
+        <v>-300000000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" s="31">
+        <v>37</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="31">
+        <v>4</v>
+      </c>
+      <c r="F15" s="32">
+        <v>300000000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="31">
+        <v>40</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="31">
+        <v>29</v>
+      </c>
+      <c r="F16" s="32">
+        <v>-300000000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="31">
+        <v>41</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="105" t="s">
+        <v>574</v>
+      </c>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="E21" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C8" s="32">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="32">
-        <v>15</v>
-      </c>
-      <c r="F8" s="33">
-        <v>50000000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C9" s="32">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="32">
-        <v>65</v>
-      </c>
-      <c r="F9" s="33">
-        <v>-50000000</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C10" s="32">
-        <v>21</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="32">
-        <v>206</v>
-      </c>
-      <c r="F10" s="33">
-        <v>-10000000</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H10" s="32">
-        <v>22</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="F21" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="H21" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="I21" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11" s="32">
-        <v>21</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="E11" s="32">
-        <v>88</v>
-      </c>
-      <c r="F11" s="33">
-        <v>10000000</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H11" s="32">
-        <v>22</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" s="32">
-        <v>26</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="32">
-        <v>4</v>
-      </c>
-      <c r="F12" s="33">
-        <v>-11000000</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H12" s="32">
-        <v>42</v>
-      </c>
-      <c r="I12" s="32" t="s">
+      <c r="J21" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="K21" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="K12" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="32">
-        <v>26</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="E13" s="32">
-        <v>198</v>
-      </c>
-      <c r="F13" s="33">
-        <v>10000000</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H13" s="32">
-        <v>42</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C14" s="32">
-        <v>26</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="E14" s="32">
-        <v>212</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1000000</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H14" s="32">
-        <v>42</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C15" s="32">
-        <v>37</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" s="32">
-        <v>28</v>
-      </c>
-      <c r="F15" s="33">
-        <v>-300000000</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C16" s="32">
-        <v>37</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="E16" s="32">
-        <v>4</v>
-      </c>
-      <c r="F16" s="33">
-        <v>300000000</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C17" s="32">
-        <v>40</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="32">
-        <v>29</v>
-      </c>
-      <c r="F17" s="33">
-        <v>-300000000</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H17" s="32">
-        <v>41</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="88" t="s">
-        <v>536</v>
-      </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89" t="s">
-        <v>534</v>
-      </c>
-      <c r="K19" s="89"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-    </row>
-    <row r="22" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A22" s="87" t="s">
-        <v>508</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>510</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>511</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>512</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>531</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>528</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>529</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>530</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>532</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>533</v>
-      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="A19:I21"/>
-    <mergeCell ref="J19:K21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="D22:D27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="A18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="D21:D26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3725,7 +3762,9 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3755,8 +3794,8 @@
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
     <col min="25" max="25" width="27.5703125" style="2" customWidth="1"/>
     <col min="26" max="26" width="31.140625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="32.7109375" style="2" customWidth="1"/>
     <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
     <col min="30" max="30" width="36.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -3766,32 +3805,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
@@ -3826,88 +3865,88 @@
         <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
@@ -3933,37 +3972,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
@@ -3972,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -3996,16 +4035,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>10</v>
@@ -4019,10 +4058,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -4034,31 +4073,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4070,16 +4109,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4097,16 +4136,16 @@
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>10</v>
@@ -4135,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -4144,13 +4183,13 @@
         <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>41</v>
@@ -4165,34 +4204,34 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>3</v>
@@ -4236,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
@@ -4245,7 +4284,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>41</v>
@@ -4260,40 +4299,40 @@
         <v>47</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>2</v>
@@ -4302,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>48</v>
@@ -4322,10 +4361,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -4337,31 +4376,31 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4373,16 +4412,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4403,13 +4442,13 @@
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>10</v>
@@ -4423,10 +4462,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -4438,37 +4477,37 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
@@ -4477,25 +4516,25 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>3</v>
@@ -4504,13 +4543,13 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>10</v>
@@ -4524,10 +4563,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -4539,31 +4578,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>1</v>
@@ -4578,13 +4617,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>10</v>
@@ -4602,16 +4641,16 @@
         <v>10</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -4625,10 +4664,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -4640,31 +4679,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>1</v>
@@ -4676,16 +4715,16 @@
         <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>10</v>
@@ -4706,13 +4745,13 @@
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>10</v>
@@ -4726,10 +4765,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -4741,31 +4780,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>1</v>
@@ -4780,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>10</v>
@@ -4804,16 +4843,16 @@
         <v>10</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
@@ -4827,10 +4866,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -4842,31 +4881,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>1</v>
@@ -4881,25 +4920,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>3</v>
@@ -4908,381 +4947,381 @@
         <v>10</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD20" s="38"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD20" s="64"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="37" t="s">
+      <c r="H23" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="I23" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="J23" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="K23" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="L23" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="N23" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="37" t="s">
+      <c r="Q23" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="R23" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="S23" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="T23" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="U23" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="V23" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="W23" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="X23" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y23" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z23" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA23" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB23" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC23" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="O23" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="P23" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="R23" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="S23" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="T23" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="V23" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="W23" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y23" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z23" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA23" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB23" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC23" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD23" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE23" s="37" t="s">
+      <c r="AD23" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE23" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="37" t="s">
+      <c r="AF23" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="37" t="s">
-        <v>272</v>
+      <c r="AG23" s="44" t="s">
+        <v>270</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="51"/>
-      <c r="Q28" s="37"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
+      <c r="O28" s="45"/>
+      <c r="Q28" s="44"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
     </row>
     <row r="29" spans="1:34">
       <c r="G29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="O29" s="45"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="24" t="s">
         <v>85</v>
       </c>
@@ -5292,34 +5331,58 @@
       <c r="T29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="51"/>
+      <c r="V29" s="45"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="23" t="s">
         <v>86</v>
       </c>
       <c r="R30" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="S30" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="S30" s="22" t="s">
+      <c r="T30" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -5336,30 +5399,6 @@
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="C20:X22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="AA20:AB22"/>
-    <mergeCell ref="AC20:AD22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="X23:X29"/>
-    <mergeCell ref="Y23:Y29"/>
-    <mergeCell ref="Z23:Z29"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="AG23:AG27"/>
-    <mergeCell ref="AF23:AF27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5373,7 +5412,9 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5401,55 +5442,55 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>591</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>541</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>542</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>543</v>
-      </c>
-      <c r="J7" s="99" t="s">
-        <v>544</v>
+      <c r="C7" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>526</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -5457,32 +5498,32 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>547</v>
-      </c>
-      <c r="F8" s="107" t="s">
+      <c r="C8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>549</v>
-      </c>
-      <c r="I8" s="107" t="s">
-        <v>550</v>
-      </c>
-      <c r="J8" s="107" t="s">
-        <v>551</v>
+      <c r="G8" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>533</v>
       </c>
       <c r="R8" s="2"/>
     </row>
@@ -5490,32 +5531,32 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>552</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>556</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" s="107" t="s">
-        <v>554</v>
-      </c>
-      <c r="J9" s="107" t="s">
-        <v>555</v>
+      <c r="C9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>537</v>
       </c>
       <c r="R9" s="2"/>
     </row>
@@ -5523,32 +5564,32 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="I10" s="107" t="s">
-        <v>558</v>
-      </c>
-      <c r="J10" s="107" t="s">
-        <v>559</v>
+      <c r="C10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>541</v>
       </c>
       <c r="R10" s="2"/>
     </row>
@@ -5556,32 +5597,32 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>561</v>
-      </c>
-      <c r="F11" s="107" t="s">
+      <c r="C11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="H11" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>563</v>
-      </c>
-      <c r="J11" s="107" t="s">
-        <v>564</v>
+      <c r="G11" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>546</v>
       </c>
       <c r="R11" s="2"/>
     </row>
@@ -5590,31 +5631,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -5623,31 +5664,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -5656,31 +5697,31 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -5689,31 +5730,31 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="R15" s="2"/>
     </row>
@@ -5722,31 +5763,31 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="R16" s="2"/>
     </row>
@@ -5755,31 +5796,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="R17" s="2"/>
     </row>
@@ -5788,149 +5829,149 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="101" t="s">
-        <v>578</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="59" t="s">
-        <v>581</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="70" t="s">
-        <v>588</v>
+      <c r="B19" s="72" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="78" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="87" t="s">
+        <v>570</v>
       </c>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="71"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="88"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="72"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="89"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>589</v>
+      <c r="A22" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>571</v>
       </c>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="R26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="G22:G26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="B19:C21"/>
     <mergeCell ref="D19:I21"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J22:J26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="G22:G26"/>
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="I22:I26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5952,9 +5993,9 @@
     <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
@@ -5965,7 +6006,7 @@
     <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="51.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -5974,34 +6015,34 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
@@ -6185,10 +6226,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -6197,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -6215,19 +6256,19 @@
         <v>69</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -6241,10 +6282,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -6265,25 +6306,25 @@
         <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -6477,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
@@ -6489,13 +6530,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>2</v>
@@ -6504,10 +6545,10 @@
         <v>10</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -6521,10 +6562,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -6533,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>1</v>
@@ -6551,7 +6592,7 @@
         <v>34</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>2</v>
@@ -6560,10 +6601,10 @@
         <v>10</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -6577,10 +6618,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -6592,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -6607,19 +6648,19 @@
         <v>69</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -6631,163 +6672,163 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>95</v>
+      <c r="D20" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q20" s="64" t="s">
+        <v>580</v>
       </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="38"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="38"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="P23" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q23" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="37"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="44"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="37"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="44"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="18" t="s">
@@ -6802,7 +6843,7 @@
         <v>86</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="20"/>
@@ -6810,12 +6851,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -6830,11 +6870,12 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6863,7 +6904,7 @@
     <col min="8" max="8" width="24" style="2" customWidth="1"/>
     <col min="9" max="9" width="33.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="60.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="62.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="32.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6872,8 +6913,8 @@
     <col min="17" max="17" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="33.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="29.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="34.85546875" style="2" customWidth="1"/>
     <col min="22" max="22" width="52.7109375" style="2" customWidth="1"/>
     <col min="23" max="23" width="25" style="2" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
@@ -6890,32 +6931,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
@@ -6944,61 +6985,61 @@
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="U7" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7012,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -7027,37 +7068,37 @@
         <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>10</v>
@@ -7080,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -7092,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>41</v>
@@ -7104,28 +7145,28 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>10</v>
@@ -7159,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
@@ -7174,7 +7215,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>33</v>
@@ -7183,7 +7224,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>10</v>
@@ -7195,16 +7236,16 @@
         <v>10</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>10</v>
@@ -7238,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -7253,7 +7294,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>53</v>
@@ -7262,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>10</v>
@@ -7274,16 +7315,16 @@
         <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>10</v>
@@ -7306,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -7321,7 +7362,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>47</v>
@@ -7330,28 +7371,28 @@
         <v>6</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>10</v>
@@ -7368,19 +7409,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
@@ -7398,28 +7439,28 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>10</v>
@@ -7428,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -7436,19 +7477,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
@@ -7457,37 +7498,37 @@
         <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>10</v>
@@ -7496,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7510,52 +7551,52 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>10</v>
@@ -7564,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -7572,37 +7613,37 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>10</v>
@@ -7614,16 +7655,16 @@
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>10</v>
@@ -7632,7 +7673,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -7640,58 +7681,58 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>10</v>
@@ -7700,273 +7741,273 @@
         <v>4</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="U20" s="38" t="s">
-        <v>427</v>
+      <c r="B20" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="78" t="s">
+        <v>582</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="94" t="s">
+        <v>583</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="T20" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="U20" s="64" t="s">
+        <v>587</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+    <row r="22" spans="1:36" ht="13.5" customHeight="1">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q23" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="S23" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="T23" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="U23" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="V23" s="45" t="s">
         <v>413</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>419</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="T23" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="U23" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="V23" s="51" t="s">
-        <v>429</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="51"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="45"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="51"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="45"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="51"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="45"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="51"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="45"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
@@ -7974,7 +8015,7 @@
     <row r="28" spans="1:36">
       <c r="R28" s="27"/>
       <c r="T28" s="27"/>
-      <c r="V28" s="51"/>
+      <c r="V28" s="45"/>
     </row>
     <row r="29" spans="1:36">
       <c r="K29" s="18" t="s">
@@ -7987,37 +8028,21 @@
       <c r="U29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="51"/>
+      <c r="V29" s="45"/>
     </row>
     <row r="30" spans="1:36" ht="191.25">
       <c r="K30" s="19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="U20:U22"/>
     <mergeCell ref="U23:U27"/>
@@ -8034,6 +8059,22 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8060,7 +8101,7 @@
     <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
@@ -8088,33 +8129,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="A4" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -8128,7 +8169,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -8137,22 +8178,22 @@
         <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8160,28 +8201,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
@@ -8192,28 +8233,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -8224,28 +8265,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
@@ -8256,28 +8297,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
@@ -8288,28 +8329,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>1</v>
@@ -8320,7 +8361,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>58</v>
@@ -8329,19 +8370,19 @@
         <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>1</v>
@@ -8352,154 +8393,154 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="70" t="s">
-        <v>403</v>
+      <c r="A18" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="95" t="s">
+        <v>589</v>
+      </c>
+      <c r="I18" s="95"/>
+      <c r="J18" s="111" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="112"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="D21" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="E21" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="G21" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="H21" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="I21" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>405</v>
+      <c r="J21" s="45" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="51"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="51"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="37"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="51"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="37"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="51"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="37"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="J27" s="51"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="J28" s="51"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="J29" s="51"/>
+      <c r="J29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8548,267 +8589,267 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="68" t="s">
-        <v>366</v>
+      <c r="A19" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="90" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="90"/>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="C22" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>367</v>
+      <c r="E22" s="65" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8832,11 +8873,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -8856,83 +8895,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="74" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1">
@@ -8943,25 +8982,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>1</v>
@@ -8970,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8981,25 +9020,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>3</v>
@@ -9008,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9019,25 +9058,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>0</v>
@@ -9046,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9057,25 +9096,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>3</v>
@@ -9084,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9095,25 +9134,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>2</v>
@@ -9122,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9133,34 +9172,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="11.25" customHeight="1">
@@ -9171,25 +9210,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>2</v>
@@ -9198,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9209,25 +9248,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>1</v>
@@ -9236,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9247,13 +9286,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
@@ -9262,19 +9301,19 @@
         <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9285,13 +9324,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>0</v>
@@ -9300,118 +9339,163 @@
         <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>485</v>
-      </c>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="114" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+    </row>
+    <row r="23" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A23" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
     <mergeCell ref="A4:I5"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A20:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t>Campo t$rcd_utc da tabela que não existe nas telas do LN</t>
   </si>
   <si>
-    <t>sessão tfacp6500m000</t>
-  </si>
-  <si>
     <t>O campo utilizado para a leitura desta informção não é visivel nas telas de consulta do LN.</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
   </si>
   <si>
     <t>tdrecl547m50l, tdrecl505m50l</t>
-  </si>
-  <si>
-    <t>sessão tdrecl547m50l</t>
   </si>
   <si>
     <t>dbo.stg_cap_titulo</t>
@@ -878,9 +872,6 @@
     <t>Segundo o Fábio da INFOR, essa informação não virá nesta base, pois aqui só conseguimos tratar os dados de Atacado e Varejo</t>
   </si>
   <si>
-    <t>Sessão tfacp2520m000</t>
-  </si>
-  <si>
     <t>tfacp2520m000, tfcmg0511m000, tfcmg0510m000, tdrecl504m00l</t>
   </si>
   <si>
@@ -990,12 +981,6 @@
   </si>
   <si>
     <t>Pegar a informação da coluna Parceiro de Negócios</t>
-  </si>
-  <si>
-    <t>Sessão znslsc530m000</t>
-  </si>
-  <si>
-    <t>Sessão znslsc501m000</t>
   </si>
   <si>
     <t>Na lupinha informar a Cia, Unid Negócio e Pedido Cliente. Na tela, pedir o detalhamento da linha apresentada.
@@ -1144,13 +1129,6 @@
   </si>
   <si>
     <t>1024</t>
-  </si>
-  <si>
-    <t>Sessão tfacp2520m000 [no menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tfacp2523m000 
-[selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
     <t xml:space="preserve"> 'PLG' = 1
@@ -1258,18 +1236,12 @@
     <t>2014-06-20 19:24:45.000</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfcmg0511m000 [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
-  </si>
-  <si>
     <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e pegar a informação da coluna Agência</t>
   </si>
   <si>
     <t>Informar no campo "Cód Agência Bancária" o "Cód Relação Bancária" e  pegar a informação da coluna DAC Agência</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfcmg0510m000  [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
-  </si>
-  <si>
     <t>Informar no campo "Filial Bco" o "Cód Relação Bancária" e  pedir o detalhamento da linha apresentada.  Na aba Detalhes,  seção Detalhes do Banco Pegar a primeira informação do campo Conta Bancária</t>
   </si>
   <si>
@@ -1279,23 +1251,13 @@
     <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se estiver nulo, a view está buscando a informação "Valor" da sessão tfacp2520m000</t>
   </si>
   <si>
-    <t>Sessão tdsls4100m000 e tcemm0130m000</t>
-  </si>
-  <si>
     <t>znslsc530m000, znslsc501m000, tdsls4100m000,tcemm0130m000</t>
   </si>
   <si>
-    <t>Nesta sessão, filtrar a ordem de Venda desejada. Pedir o detalhamento do campo Dep. De Vendas. Na sequência pegar o código da Unidade Empresarial
-Ir para a sessão tcemm0130m000 e pegar o campo Cat.da Uni Empresarial referente à Unidade Empresarial que estamos analisando</t>
-  </si>
-  <si>
     <t>Selecionar a linha apresentada e no menu Specific, selecionar Detalhes. Na aba Valor, seção Detalhes, pegar as informações "Valor" + "Valor Imposto Retido" [valor absoluto]</t>
   </si>
   <si>
     <t>Pegar a informação da data do Documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tfacp2523m000  [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
     <t>Pegar a informação da coluna Modalidade de pagamento</t>
@@ -1320,12 +1282,6 @@
 17-GNRE e tributos com código de barras</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfacp1103m000  [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
-  </si>
-  <si>
-    <t>Sessão tfacp6500m000 [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
-  </si>
-  <si>
     <t>Na seção "Detalhe de Pagamento", pegar a informação "Método de Pgto"</t>
   </si>
   <si>
@@ -1348,9 +1304,6 @@
   </si>
   <si>
     <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, fazer o detalhamento e pegar a data da última alteração se o campo estornar pagamento estiver ticado.</t>
-  </si>
-  <si>
-    <t>Sessão tfcmgl300m00l</t>
   </si>
   <si>
     <t>Utilizando como base o numero do documento, verificar se essa informação existe nesta tela. Se existir, pegar a informação "Status do envio"</t>
@@ -1368,9 +1321,6 @@
 </t>
   </si>
   <si>
-    <t>Sessão tfcmgd568m00d</t>
-  </si>
-  <si>
     <t>Filtrar pelo lote de pagamento do título que está sendo analisado. Pegar a informação existente na coluna "Status Lote de Pagamento"</t>
   </si>
   <si>
@@ -1385,9 +1335,6 @@
 qdo não tem dados, retorna 0</t>
   </si>
   <si>
-    <t>Sessão tfcmg1521m000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Na linha cujo Tipo de Documento é "Pagamento Normal", pegar a data do Documento </t>
   </si>
   <si>
@@ -1707,15 +1654,9 @@
     <t>Na Lupinha, pedir o filtro do CD_TIPO_TRANSACAO_REVERSAO desejado. Pedir o detalhamento do  Nr Transação de Reversão desejado. Pegar a informação da coluna "Documento"</t>
   </si>
   <si>
-    <t>Sessão tfgld1504m000</t>
-  </si>
-  <si>
     <t>znacrc217m000 e tfgld1504m000</t>
   </si>
   <si>
-    <t xml:space="preserve">   znacrc217m000 [Digitar o CD_PARCEIRO na caixa "Parceiro de Negócios" e pedir para filtrar os dados]</t>
-  </si>
-  <si>
     <t>stg_cap_conciliacao_CAP_CAR</t>
   </si>
   <si>
@@ -1879,6 +1820,65 @@
   </si>
   <si>
     <t>REF_FISCAL [não tem na tabela, mas precisamos dela para consultar os lançamentos]</t>
+  </si>
+  <si>
+    <t>Sessão znacrc217m000 (Reversão do encontro de contas) [Digitar o CD_PARCEIRO na caixa "Parceiro de Negócios" e pedir para filtrar os dados]</t>
+  </si>
+  <si>
+    <t>Sessão tfgld1504m000 (Histórico do Documento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0511m000 (Agências Bancárias) [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfcmg0510m000 (Relações Bancárias)  [usar o código da Relação Bancária identificado na sessão tfacp2520m000. Esse código encontra-se após a coluna "Sdo Previsto em Moeda da Fatura, após a primeira "/" ] </t>
+  </si>
+  <si>
+    <t>Sessão tfacp2520m000 (Invoice-from business partner open entries) [no menu Specific, selecionar "Incluindo Faturas Totalmente Pagas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000 (Documentos relacionados ao pagamento por entrada aberta)
+[selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t>sessão tfacp6500m000 (Documentos relacionados ao pagamento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2520m000 (Invoice-from business partner open entries) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp2523m000  (Documentos relacionados ao pagamento por entrada aberta)  [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp1103m000 (Agenda de Pag.) [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
+  </si>
+  <si>
+    <t>Sessão tfacp6500m000 (Documentos relacionados ao pagamento)  [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl300m00l (Estornar documentos de pagamento)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgd568m00d (Documentos EBF enviados ao Banco - Pagamentos)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg1521m000 (Número de Lote para Procedimento Pagto)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc530m000 (Controle de Faturamento)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000 (Pedido de Venda Site - Linha)</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Vendas)</t>
+  </si>
+  <si>
+    <t>Nesta sessão, filtrar a ordem de Venda desejada. Pedir o detalhamento do campo Dep. De Vendas. Na sequência pegar o código da Unidade Empresarial
+Ir para a sessão tcemm0130m000 (Unidades Empresariais) e pegar o campo Cat.da Uni Empresarial referente à Unidade Empresarial que estamos analisando</t>
+  </si>
+  <si>
+    <t>sessão tdrecl547m50l (Dados de Origem Linhas Recebimento Fiscal - Sumário)</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2348,33 +2348,99 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2393,29 +2459,26 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2444,19 +2507,55 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,104 +2564,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2959,7 +2962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2977,49 +2980,49 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="10" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="10" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="10" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="29" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -3046,7 +3049,9 @@
   </sheetPr>
   <dimension ref="A2:AG27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3065,12 +3070,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3104,12 +3109,12 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3144,51 +3149,51 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E8" s="32">
         <v>15</v>
@@ -3197,16 +3202,16 @@
         <v>50000000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" s="32">
         <v>0</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>10</v>
@@ -3215,16 +3220,16 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C9" s="32">
         <v>1</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="32">
         <v>65</v>
@@ -3233,16 +3238,16 @@
         <v>-50000000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H9" s="32">
         <v>0</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>10</v>
@@ -3251,16 +3256,16 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C10" s="32">
         <v>21</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" s="32">
         <v>206</v>
@@ -3269,34 +3274,34 @@
         <v>-10000000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H10" s="32">
         <v>22</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C11" s="32">
         <v>21</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E11" s="32">
         <v>88</v>
@@ -3305,28 +3310,28 @@
         <v>10000000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H11" s="32">
         <v>22</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C12" s="32">
         <v>26</v>
@@ -3341,34 +3346,34 @@
         <v>-11000000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H12" s="32">
         <v>42</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C13" s="32">
         <v>26</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="E13" s="32">
         <v>198</v>
@@ -3377,34 +3382,34 @@
         <v>10000000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H13" s="32">
         <v>42</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C14" s="32">
         <v>26</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="E14" s="32">
         <v>212</v>
@@ -3413,34 +3418,34 @@
         <v>1000000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H14" s="32">
         <v>42</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C15" s="32">
         <v>37</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E15" s="32">
         <v>28</v>
@@ -3449,16 +3454,16 @@
         <v>-300000000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" s="32">
         <v>0</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>10</v>
@@ -3467,16 +3472,16 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C16" s="32">
         <v>37</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="E16" s="32">
         <v>4</v>
@@ -3485,16 +3490,16 @@
         <v>300000000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" s="32">
         <v>0</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>10</v>
@@ -3503,16 +3508,16 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C17" s="32">
         <v>40</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E17" s="32">
         <v>29</v>
@@ -3521,19 +3526,19 @@
         <v>-300000000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="H17" s="32">
         <v>41</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -3552,151 +3557,156 @@
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="88" t="s">
-        <v>536</v>
-      </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89" t="s">
-        <v>534</v>
-      </c>
-      <c r="K19" s="89"/>
+      <c r="A19" s="108" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="K19" s="41"/>
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A22" s="87" t="s">
-        <v>508</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>510</v>
-      </c>
-      <c r="D22" s="87" t="s">
+      <c r="A22" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="G22" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="H22" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="F22" s="87" t="s">
-        <v>531</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>528</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>529</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>530</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>532</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>533</v>
+      <c r="I22" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
     <mergeCell ref="K22:K27"/>
     <mergeCell ref="A19:I21"/>
     <mergeCell ref="J19:K21"/>
@@ -3707,11 +3717,6 @@
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="J22:J27"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3725,7 +3730,9 @@
   </sheetPr>
   <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:X22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3766,32 +3773,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
@@ -3826,88 +3833,88 @@
         <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="AE7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
@@ -3933,37 +3940,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>1</v>
@@ -3972,13 +3979,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>10</v>
@@ -3996,16 +4003,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>10</v>
@@ -4019,10 +4026,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -4034,31 +4041,31 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>1</v>
@@ -4070,16 +4077,16 @@
         <v>1</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>10</v>
@@ -4097,16 +4104,16 @@
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>10</v>
@@ -4135,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -4144,13 +4151,13 @@
         <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>41</v>
@@ -4165,34 +4172,34 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>3</v>
@@ -4236,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
@@ -4245,7 +4252,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>41</v>
@@ -4260,40 +4267,40 @@
         <v>47</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB11" s="4" t="s">
         <v>2</v>
@@ -4302,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>48</v>
@@ -4322,10 +4329,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
@@ -4337,31 +4344,31 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>1</v>
@@ -4373,16 +4380,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>10</v>
@@ -4403,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>10</v>
@@ -4423,10 +4430,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -4438,37 +4445,37 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>1</v>
@@ -4477,25 +4484,25 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>3</v>
@@ -4504,13 +4511,13 @@
         <v>10</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>10</v>
@@ -4524,10 +4531,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -4539,31 +4546,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>1</v>
@@ -4578,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>10</v>
@@ -4602,16 +4609,16 @@
         <v>10</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -4625,10 +4632,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -4640,31 +4647,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>1</v>
@@ -4676,16 +4683,16 @@
         <v>1</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>10</v>
@@ -4706,13 +4713,13 @@
         <v>10</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>10</v>
@@ -4726,10 +4733,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -4741,31 +4748,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>1</v>
@@ -4780,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>10</v>
@@ -4804,16 +4811,16 @@
         <v>10</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
@@ -4827,10 +4834,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -4842,31 +4849,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>1</v>
@@ -4881,25 +4888,25 @@
         <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>3</v>
@@ -4908,381 +4915,381 @@
         <v>10</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="90" t="s">
-        <v>577</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD20" s="38"/>
+      <c r="C20" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="60" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD20" s="66"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1">
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="37" t="s">
+      <c r="H23" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="I23" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="J23" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="K23" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="L23" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="N23" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="37" t="s">
+      <c r="Q23" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="S23" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="T23" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="U23" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="V23" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="W23" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="X23" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y23" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z23" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA23" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB23" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC23" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="O23" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="P23" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="R23" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="S23" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="T23" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="V23" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="W23" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y23" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z23" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA23" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB23" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC23" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD23" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE23" s="37" t="s">
+      <c r="AD23" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE23" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="37" t="s">
+      <c r="AF23" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="37" t="s">
-        <v>272</v>
+      <c r="AG23" s="46" t="s">
+        <v>270</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="O28" s="51"/>
-      <c r="Q28" s="37"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
+      <c r="O28" s="47"/>
+      <c r="Q28" s="46"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
     </row>
     <row r="29" spans="1:34">
       <c r="G29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="51"/>
-      <c r="Q29" s="52"/>
+      <c r="O29" s="47"/>
+      <c r="Q29" s="48"/>
       <c r="R29" s="24" t="s">
         <v>85</v>
       </c>
@@ -5292,34 +5299,58 @@
       <c r="T29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="51"/>
+      <c r="V29" s="47"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
     </row>
     <row r="30" spans="1:34" ht="236.25">
       <c r="G30" s="23" t="s">
         <v>86</v>
       </c>
       <c r="R30" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="S30" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="S30" s="22" t="s">
+      <c r="T30" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="AE23:AE27"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="AF23:AF27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="C20:X22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="AA20:AB22"/>
+    <mergeCell ref="AC20:AD22"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="X23:X29"/>
+    <mergeCell ref="Y23:Y29"/>
+    <mergeCell ref="Z23:Z29"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="V23:V29"/>
+    <mergeCell ref="Q23:Q29"/>
+    <mergeCell ref="W23:W28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="P23:P27"/>
@@ -5336,30 +5367,6 @@
     <mergeCell ref="I23:I27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
-    <mergeCell ref="C20:X22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="AA20:AB22"/>
-    <mergeCell ref="AC20:AD22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="X23:X29"/>
-    <mergeCell ref="Y23:Y29"/>
-    <mergeCell ref="Z23:Z29"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="Q23:Q29"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="AG23:AG27"/>
-    <mergeCell ref="AF23:AF27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="AB23:AB29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5373,7 +5380,9 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5401,55 +5410,55 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>591</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>546</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>541</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>542</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>543</v>
-      </c>
-      <c r="J7" s="99" t="s">
-        <v>544</v>
+      <c r="C7" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -5457,32 +5466,32 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>547</v>
-      </c>
-      <c r="F8" s="107" t="s">
+      <c r="C8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>549</v>
-      </c>
-      <c r="I8" s="107" t="s">
-        <v>550</v>
-      </c>
-      <c r="J8" s="107" t="s">
-        <v>551</v>
+      <c r="G8" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>532</v>
       </c>
       <c r="R8" s="2"/>
     </row>
@@ -5490,32 +5499,32 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>552</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>556</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" s="107" t="s">
-        <v>554</v>
-      </c>
-      <c r="J9" s="107" t="s">
-        <v>555</v>
+      <c r="C9" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>536</v>
       </c>
       <c r="R9" s="2"/>
     </row>
@@ -5523,32 +5532,32 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>548</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="I10" s="107" t="s">
-        <v>558</v>
-      </c>
-      <c r="J10" s="107" t="s">
-        <v>559</v>
+      <c r="C10" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>540</v>
       </c>
       <c r="R10" s="2"/>
     </row>
@@ -5556,32 +5565,32 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>561</v>
-      </c>
-      <c r="F11" s="107" t="s">
+      <c r="C11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="H11" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>563</v>
-      </c>
-      <c r="J11" s="107" t="s">
-        <v>564</v>
+      <c r="G11" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>545</v>
       </c>
       <c r="R11" s="2"/>
     </row>
@@ -5590,31 +5599,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -5623,31 +5632,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -5656,31 +5665,31 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -5689,31 +5698,31 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="R15" s="2"/>
     </row>
@@ -5722,31 +5731,31 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="R16" s="2"/>
     </row>
@@ -5755,31 +5764,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="R17" s="2"/>
     </row>
@@ -5788,149 +5797,149 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="101" t="s">
-        <v>578</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="59" t="s">
-        <v>581</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="70" t="s">
-        <v>588</v>
+      <c r="B19" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="80" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="89" t="s">
+        <v>569</v>
       </c>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="71"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="90"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="72"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="91"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>589</v>
+      <c r="A22" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>570</v>
       </c>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
       <c r="R26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="G22:G26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="B19:C21"/>
     <mergeCell ref="D19:I21"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J22:J26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="G22:G26"/>
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="I22:I26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5945,16 +5954,18 @@
   </sheetPr>
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
@@ -5965,7 +5976,7 @@
     <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="51.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="38.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -5974,34 +5985,34 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
@@ -6185,10 +6196,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -6197,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -6215,19 +6226,19 @@
         <v>69</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -6241,10 +6252,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -6265,25 +6276,25 @@
         <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -6477,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
@@ -6489,13 +6500,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>2</v>
@@ -6504,10 +6515,10 @@
         <v>10</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -6521,10 +6532,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -6533,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>1</v>
@@ -6551,7 +6562,7 @@
         <v>34</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>2</v>
@@ -6560,10 +6571,10 @@
         <v>10</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -6577,10 +6588,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -6592,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -6607,19 +6618,19 @@
         <v>69</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -6631,163 +6642,163 @@
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>95</v>
+      <c r="D20" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q20" s="66" t="s">
+        <v>579</v>
       </c>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="11.25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="38"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="66"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="11.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="38"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q23" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="P23" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q23" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="37"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="37"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="46"/>
     </row>
     <row r="27" spans="1:18">
       <c r="K27" s="18" t="s">
@@ -6802,7 +6813,7 @@
         <v>86</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="20"/>
@@ -6810,12 +6821,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
     <mergeCell ref="N23:N25"/>
     <mergeCell ref="G20:O22"/>
     <mergeCell ref="A23:A25"/>
@@ -6830,11 +6840,12 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q23:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6849,7 +6860,9 @@
   </sheetPr>
   <dimension ref="A2:AJ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:U27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6863,7 +6876,7 @@
     <col min="8" max="8" width="24" style="2" customWidth="1"/>
     <col min="9" max="9" width="33.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="60.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="64.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="32.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6872,8 +6885,8 @@
     <col min="17" max="17" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="33.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="29.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="38.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="37" style="2" customWidth="1"/>
     <col min="22" max="22" width="52.7109375" style="2" customWidth="1"/>
     <col min="23" max="23" width="25" style="2" customWidth="1"/>
     <col min="24" max="24" width="26.85546875" style="2" customWidth="1"/>
@@ -6890,32 +6903,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="P4" s="1"/>
@@ -6944,61 +6957,61 @@
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="U7" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7012,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -7027,37 +7040,37 @@
         <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>10</v>
@@ -7080,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -7092,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>41</v>
@@ -7104,28 +7117,28 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>10</v>
@@ -7159,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
@@ -7174,7 +7187,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>33</v>
@@ -7183,7 +7196,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>10</v>
@@ -7195,16 +7208,16 @@
         <v>10</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>10</v>
@@ -7238,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -7253,7 +7266,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>53</v>
@@ -7262,7 +7275,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>10</v>
@@ -7274,16 +7287,16 @@
         <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>10</v>
@@ -7306,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -7321,7 +7334,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>47</v>
@@ -7330,28 +7343,28 @@
         <v>6</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>10</v>
@@ -7368,19 +7381,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
@@ -7398,28 +7411,28 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>10</v>
@@ -7428,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -7436,19 +7449,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
@@ -7457,37 +7470,37 @@
         <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>10</v>
@@ -7496,7 +7509,7 @@
         <v>4</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7510,52 +7523,52 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>10</v>
@@ -7564,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -7572,37 +7585,37 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>10</v>
@@ -7614,16 +7627,16 @@
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>10</v>
@@ -7632,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -7640,58 +7653,58 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>10</v>
@@ -7700,273 +7713,273 @@
         <v>4</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="U20" s="38" t="s">
-        <v>427</v>
+      <c r="B20" s="80" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="94" t="s">
+        <v>581</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="105" t="s">
+        <v>582</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>583</v>
+      </c>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="103" t="s">
+        <v>584</v>
+      </c>
+      <c r="T20" s="66" t="s">
+        <v>585</v>
+      </c>
+      <c r="U20" s="66" t="s">
+        <v>586</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="K23" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q23" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="R23" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="S23" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="T23" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="K23" s="50" t="s">
+      <c r="U23" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>413</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>419</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="T23" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="U23" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="V23" s="51" t="s">
-        <v>429</v>
+      <c r="V23" s="47" t="s">
+        <v>412</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="51"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="47"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="51"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="47"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="51"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="47"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="51"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="47"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
@@ -7974,7 +7987,7 @@
     <row r="28" spans="1:36">
       <c r="R28" s="27"/>
       <c r="T28" s="27"/>
-      <c r="V28" s="51"/>
+      <c r="V28" s="47"/>
     </row>
     <row r="29" spans="1:36">
       <c r="K29" s="18" t="s">
@@ -7987,37 +8000,21 @@
       <c r="U29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="V29" s="51"/>
+      <c r="V29" s="47"/>
     </row>
     <row r="30" spans="1:36" ht="191.25">
       <c r="K30" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="U30" s="28" t="s">
         <v>410</v>
-      </c>
-      <c r="T30" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
     <mergeCell ref="V23:V29"/>
     <mergeCell ref="U20:U22"/>
     <mergeCell ref="U23:U27"/>
@@ -8034,6 +8031,22 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="I23:I27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8047,7 +8060,9 @@
   </sheetPr>
   <dimension ref="A2:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -8060,7 +8075,7 @@
     <col min="7" max="7" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="39.140625" style="2" customWidth="1"/>
@@ -8088,33 +8103,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="A4" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -8128,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -8137,22 +8152,22 @@
         <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8160,28 +8175,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
@@ -8192,28 +8207,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -8224,28 +8239,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
@@ -8256,28 +8271,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
@@ -8288,28 +8303,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>1</v>
@@ -8320,7 +8335,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>58</v>
@@ -8329,19 +8344,19 @@
         <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>1</v>
@@ -8352,154 +8367,154 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="70" t="s">
-        <v>403</v>
+      <c r="A18" s="66" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="106" t="s">
+        <v>588</v>
+      </c>
+      <c r="I18" s="106"/>
+      <c r="J18" s="89" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="D21" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="E21" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="G21" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="H21" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="I21" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>405</v>
+      <c r="J21" s="47" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="51"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="51"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="37"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="51"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="37"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="51"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="37"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="J27" s="51"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="J28" s="51"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="J29" s="51"/>
+      <c r="J29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8532,7 +8547,9 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -8548,267 +8565,267 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="68" t="s">
-        <v>366</v>
+      <c r="A19" s="66" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="92" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="92"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="C22" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>367</v>
+      <c r="E22" s="67" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8856,83 +8873,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="74" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="107" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1">
@@ -8943,25 +8960,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>1</v>
@@ -8970,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8981,25 +8998,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>3</v>
@@ -9008,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9019,25 +9036,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>0</v>
@@ -9046,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9057,25 +9074,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>3</v>
@@ -9084,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9095,25 +9112,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>2</v>
@@ -9122,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9133,34 +9150,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="11.25" customHeight="1">
@@ -9171,25 +9188,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>2</v>
@@ -9198,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9209,25 +9226,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>1</v>
@@ -9236,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9247,13 +9264,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
@@ -9262,19 +9279,19 @@
         <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9285,13 +9302,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>0</v>
@@ -9300,100 +9317,100 @@
         <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>485</v>
+      <c r="A21" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Documentação/Planilhas/Conferencia_CAP.xlsx
+++ b/Documentação/Planilhas/Conferencia_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="499">
   <si>
     <t>1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>201</t>
   </si>
   <si>
     <t>DT_ATUALIZACAO</t>
@@ -711,9 +708,6 @@
 qdo não tem dados, retorna 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Na linha cujo Tipo de Documento é "Pagamento Normal", pegar a data do Documento </t>
-  </si>
-  <si>
     <t>A query busca o campo [tfacp600.t$sdat] . Como não encontro essa data nas telas do LN, o Fábio respondeu o seguinte:
 [08/05/2014 10:19:59] Fabio Ferreira - INFOR: é um campo de controle [data de criação] que mostra quando foi criado o relacionamento com o pagamento Sendo assim, não é possível validar essa informação pelas telas do LN</t>
   </si>
@@ -754,12 +748,6 @@
     <t>PRK</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -1064,9 +1052,6 @@
     <t xml:space="preserve">Sessão tfacp2523m000  (Documentos relacionados ao pagamento por entrada aberta)  [selecionar o título desejado na sessão tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Documentos relacionados ao pagamento por entrada aberta"] </t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tfacp1103m000 (Agenda de Pag.) [selecionar a linha apresentada  na sessão tfacp2523m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
-  </si>
-  <si>
     <t>Sessão tfacp6500m000 (Documentos relacionados ao pagamento)  [Selecionar  pelo CD_TRANSACAO_TITULO, SQ_DOCUMENTO E NR_MOVIMENTO desejado e pedir o detalhamento da linha apresentada]</t>
   </si>
   <si>
@@ -1080,9 +1065,6 @@
   </si>
   <si>
     <t>Sessão znslsc530m000 (Controle de Faturamento)</t>
-  </si>
-  <si>
-    <t>Sessão znslsc501m000 (Pedido de Venda Site - Linha)</t>
   </si>
   <si>
     <t>Sessão tdsls4100m000 (Ordens de Vendas)</t>
@@ -1263,36 +1245,6 @@
     <t>Pedir o detalhamento da Ref Fiscal. Na aba superior Valores, seção Valores, pegar a informação do Valor Total documento Fiscal. Se não existir uma Referência Fiscal, a view está buscando a informação "Valor" da sessão tfacp2520m000</t>
   </si>
   <si>
-    <t>P0065</t>
-  </si>
-  <si>
-    <t>P00</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>000002213</t>
-  </si>
-  <si>
-    <t>540753</t>
-  </si>
-  <si>
-    <t>2015-01-16 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2015-02-16 00:00:00.000</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>R20003188</t>
-  </si>
-  <si>
-    <t>2015-01-19 09:20:11.000</t>
-  </si>
-  <si>
     <t>2015-01-20 00:00:00.000</t>
   </si>
   <si>
@@ -1344,24 +1296,12 @@
     <t>000002729</t>
   </si>
   <si>
-    <t>2015-01-08 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2015-01-14 00:00:00.000</t>
-  </si>
-  <si>
     <t>2015-01-09 00:00:00.000</t>
   </si>
   <si>
     <t>403.9900</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>2015-01-12 18:20:05.000</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
@@ -1386,45 +1326,15 @@
     <t>2015-01-20 18:51:24.000</t>
   </si>
   <si>
-    <t>2015-01-20 19:20:06.000</t>
-  </si>
-  <si>
-    <t>NCC201</t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
-    <t>2015-01-26 00:00:00.000</t>
-  </si>
-  <si>
-    <t>5.1800</t>
-  </si>
-  <si>
-    <t>P0051</t>
-  </si>
-  <si>
-    <t>2015-01-26 17:01:29.000</t>
-  </si>
-  <si>
     <t>215</t>
   </si>
   <si>
-    <t>-403.9900</t>
-  </si>
-  <si>
     <t>2015-01-09 10:26:44.000</t>
   </si>
   <si>
-    <t>2015-01-12 18:20:06.000</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>-5.1800</t>
-  </si>
-  <si>
     <t>REC</t>
   </si>
   <si>
@@ -1446,18 +1356,6 @@
     <t>Selecionar a linha. Ir para o menu Specific, Documento da Fatura por Pagamento. No cabeçalho da tela, pegar a data de Pagamento</t>
   </si>
   <si>
-    <t>Sessão tccom4525m000 (Ctas. Bancárias por Parceiro Negócio Cred.)</t>
-  </si>
-  <si>
-    <t>Na lupinha, após limpar os campos, informar o CD_PARCEIRO. Pegar os dados da coluna "Código da Conta"</t>
-  </si>
-  <si>
-    <t>Na lupinha, após limpar os campos, informar o CD_PARCEIRO. Pegar os dados da coluna "Filial Bancária"</t>
-  </si>
-  <si>
-    <t>Na lupinha, após limpar os campos, informar o CD_PARCEIRO. Pegar os dados da coluna "Conta Bancária"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meu usuário não tem permissão para </t>
   </si>
   <si>
@@ -1503,24 +1401,6 @@
     <t>V20007516</t>
   </si>
   <si>
-    <t>000002852</t>
-  </si>
-  <si>
-    <t>PRB130</t>
-  </si>
-  <si>
-    <t>42188718</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>V20008302</t>
-  </si>
-  <si>
-    <t>V20008283</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna Tipo Transação</t>
   </si>
   <si>
@@ -1533,63 +1413,9 @@
     <t>Na lupinha informar a Cia, Unid Negócio e Pedido Cliente. Na tela, quando a linha tiver "Produto/Não Produto = P" e  "Quantidade Vendida maior do que zero", pegar a informação de Ordem de Venda LN</t>
   </si>
   <si>
-    <t>PFA508</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>2014-08-20 00:00:00.000</t>
-  </si>
-  <si>
-    <t>-300.0000</t>
-  </si>
-  <si>
-    <t>2014-08-20 16:07:26.000</t>
-  </si>
-  <si>
-    <t>PDA77</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>2014-08-20 16:07:45.000</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2014-08-20 16:15:21.000</t>
-  </si>
-  <si>
-    <t>PDA75</t>
-  </si>
-  <si>
-    <t>2014-08-20 16:15:23.000</t>
-  </si>
-  <si>
-    <t>PFA504</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>2014-08-19 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-08-19 18:07:16.000</t>
-  </si>
-  <si>
     <t>Informar nos campos "Tipo Trans" e "Número do Documento" as informações desejadas (desmembrando o  CD_CHAVE_PRIMARIA) e ir com a setinha de avanço até encontrar o registro, pois a view não tem o Cód Parceiro</t>
   </si>
   <si>
-    <t>Problema com Timezone. Está vindo 1 hora a mais na view</t>
-  </si>
-  <si>
     <t>2015-01-12 00:00:00.000</t>
   </si>
   <si>
@@ -1603,13 +1429,181 @@
   </si>
   <si>
     <t>Com o botão direito do mouse sobre a linha desejada, escolher Specific, Documentos Relacionados ao Pagamento por Entrada em Aberto. Selecionar a linha e no menu Specific, escolher a opção Documentos da Fatura por Pagamento. No cabeçalho, pegar a informação da Data do Pagamento</t>
+  </si>
+  <si>
+    <t>PFR12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2015-01-23 14:47:26.000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>000002576</t>
+  </si>
+  <si>
+    <t>R20003238</t>
+  </si>
+  <si>
+    <t>2015-01-20 19:20:05.000</t>
+  </si>
+  <si>
+    <t>2015-02-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>R20003208</t>
+  </si>
+  <si>
+    <t>PFS422</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>2015-01-28 00:00:00.000</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>66287</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:37:50.000</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:42:08.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a data do Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tfacp1103m000 (Agenda de Pag.) [selecionar a linha apresentada  na sessão  tfacp2520m000 e com o botão direito do mouse escolher Specific ==&gt; "Progr Pagamento"] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessão tccom4525m000 (Ctas Bancárias por Parceiro de Neg. Credor) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na sessão tfacp2520m000 selecionar a linha e no menu Specific selecionar "Program. Pagamento". Detalhar a linha apresentada. Na aba superior Geral, pegar a informação de "Banco do Fornecedor". Ir para a sessão tccom4525m000 e informar o Banco do Fornecedor no campo "Código da Conta". Pegar a informação da coluna Conta Bancária</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0511m000 (Agências Bancárias) [Na sessão tccom4525m000  (Ctas Bancárias por Parceiro de Neg. Credor) , pegar a informação de "Filial Bancária"]</t>
+  </si>
+  <si>
+    <t>Informar o código da "Filial Bancária" na coluna "Código da Agência Bancária". Pegar os dados da coluna "Agência"</t>
+  </si>
+  <si>
+    <t>Informar o código da "Filial Bancária" na coluna "Código da Agência Bancária". Pegar a informação da coluna "Banco Oficial"</t>
+  </si>
+  <si>
+    <t>PDA78</t>
+  </si>
+  <si>
+    <t>PDA</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>PFS421</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:26:07.000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:49:41.000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:13:44.000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:13:55.000</t>
+  </si>
+  <si>
+    <t>PNG78</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>1000.0000</t>
+  </si>
+  <si>
+    <t>PFS418</t>
+  </si>
+  <si>
+    <t>2015-01-28 17:58:53.000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:03:52.000</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>-1000.0000</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:05:03.000</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>6000.0000</t>
+  </si>
+  <si>
+    <t>PSG24</t>
+  </si>
+  <si>
+    <t>2015-01-28 18:05:05.000</t>
+  </si>
+  <si>
+    <t>42188468</t>
+  </si>
+  <si>
+    <t>PRB115</t>
+  </si>
+  <si>
+    <t>V20007745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão znslsc501m000 (Pedido de Venda Site - Linha) [Apenas para "Produto ou não Produto = "P"] </t>
+  </si>
+  <si>
+    <t>2015-01-28 18:26:09.000</t>
+  </si>
+  <si>
+    <t>Problema com Timezone. Está vindo 1 hora a mais na view para as datas que estão fora do horário de verão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,8 +1695,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,12 +1730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,7 +1996,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2102,6 +2096,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2117,10 +2118,73 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,63 +2214,6 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2303,77 +2310,40 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2445,13 +2415,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2771,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2781,57 +2751,57 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -2855,31 +2825,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E2:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(B2,", ")</f>
-        <v xml:space="preserve">CD_MODULO, </v>
+        <v xml:space="preserve">CD_CIA, </v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E34" si="0">CONCATENATE(B3,", ")</f>
-        <v xml:space="preserve">CD_CIA, </v>
+        <v xml:space="preserve">CD_FILIAL, </v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -2888,178 +2860,178 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+        <v xml:space="preserve">CD_TRANSACAO_LINK, </v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_TITULO, </v>
+        <v xml:space="preserve">NR_DOCUMENTO_LINK, </v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_NF, </v>
+        <v xml:space="preserve">NR_LINHA_LINK, </v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_NF_RECEBIDA, </v>
+        <v xml:space="preserve">DT_LINK, </v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_SERIE_NF_RECEBIDA, </v>
+        <v xml:space="preserve">VL_LINK, </v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_FILIAL, </v>
+        <v xml:space="preserve">CD_TRANSACAO_REVERSAO, </v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
+        <v xml:space="preserve">NR_DOCUMENTO_REVERSAO, </v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PARCEIRO, </v>
+        <v xml:space="preserve">NR_LINHA_REVERSAO, </v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_EMISSAO_TITULO, </v>
+        <v xml:space="preserve">DT_REVERSAO, </v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO, </v>
+        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">VL_TRANSACAO, </v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TITULO, </v>
+        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_SALDO, </v>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SQ_NF_RECEBIDA, </v>
+        <v xml:space="preserve">DT_SITUACAO, </v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">IN_BLOQUEIO_TITULO, </v>
+        <v xml:space="preserve">DT_ATUALIZACAO, </v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_VENCIMENTO_ORIGINAL, </v>
+        <v xml:space="preserve">DT_ESTORNO, </v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
+        <v xml:space="preserve">CD_SITUACAO_PAGTO_ELETRONICO, </v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_BANCO_DESTINO, </v>
+        <v xml:space="preserve">CD_SITUACAO_PAGAMENTO, </v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">VL_TAXA_MULTA, </v>
+        <v xml:space="preserve">DT_PAGAMENTO, </v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -3068,7 +3040,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -3077,7 +3049,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -3086,7 +3058,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -3095,7 +3067,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -3104,7 +3076,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -3113,7 +3085,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -3122,7 +3094,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -3131,7 +3103,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -3140,7 +3112,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -3149,7 +3121,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -3187,12 +3159,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3226,12 +3198,12 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3266,396 +3238,396 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="G7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="I7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>247</v>
-      </c>
       <c r="K7" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C8" s="38">
         <v>48</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="38">
         <v>7</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="38">
         <v>0</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C9" s="38">
         <v>48</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E9" s="38">
         <v>10</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="38">
         <v>0</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10" s="38">
         <v>49</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="38">
         <v>66</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="38">
         <v>0</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C11" s="38">
         <v>49</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E11" s="38">
         <v>18</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="38">
         <v>0</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C12" s="38">
         <v>50</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="38">
         <v>73</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="38">
         <v>0</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" s="38">
         <v>50</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E13" s="38">
         <v>13</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="38">
         <v>0</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C14" s="38">
         <v>51</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="38">
         <v>66</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="38">
         <v>0</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C15" s="38">
         <v>51</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="38">
         <v>0</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C16" s="31">
         <v>52</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="31">
         <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="31">
         <v>0</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C17" s="31">
         <v>52</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E17" s="31">
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="31">
         <v>0</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" s="31"/>
     </row>
@@ -3674,148 +3646,148 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="43"/>
+      <c r="A19" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="46"/>
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="F22" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="G22" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="H22" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="I22" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>357</v>
+      <c r="J22" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3847,7 +3819,9 @@
   </sheetPr>
   <dimension ref="A2:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3888,35 +3862,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="A4" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3935,1408 +3909,1509 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="R7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="T7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>1</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T8" s="36" t="s">
         <v>1</v>
       </c>
       <c r="U8" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y8" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="Z8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="AA8" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB8" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>391</v>
-      </c>
       <c r="H9" s="36" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>394</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="T9" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>1</v>
-      </c>
       <c r="U9" s="36" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="V9" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W9" s="36" t="s">
-        <v>8</v>
+        <v>381</v>
       </c>
       <c r="X9" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y9" s="36" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="36" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="36" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="36" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="AD9" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>8</v>
+        <v>401</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="5" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>400</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="110" t="s">
+      <c r="C10" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="110" t="s">
-        <v>403</v>
-      </c>
-      <c r="H10" s="110" t="s">
+      <c r="G10" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="110" t="s">
-        <v>361</v>
-      </c>
-      <c r="J10" s="110" t="s">
+      <c r="I10" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="110" t="s">
-        <v>402</v>
+      <c r="K10" s="36" t="s">
+        <v>386</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="T10" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="T10" s="36" t="s">
+      <c r="U10" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="36" t="s">
+      <c r="W10" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="V10" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="X10" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="Z10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="AA10" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AC10" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD10" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="5" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="AD10" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="P11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="5" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>496</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="N11" s="36" t="s">
+      <c r="C12" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="36" t="s">
+      <c r="O12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="T11" s="36" t="s">
+      <c r="U12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U11" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y11" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="AD11" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="T12" s="36" t="s">
+      <c r="W12" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U12" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB12" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>8</v>
+      <c r="Y12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="11.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE16" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" customHeight="1">
+      <c r="C19" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD19" s="54"/>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+    </row>
+    <row r="21" spans="1:34" ht="11.25" customHeight="1">
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+    </row>
+    <row r="22" spans="1:34" ht="11.25" customHeight="1">
+      <c r="A22" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="U22" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="V22" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="W22" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="X22" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y22" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z22" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA22" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="AF16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1">
-      <c r="C19" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="55" t="s">
+      <c r="AB22" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC22" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD19" s="61"/>
-    </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-    </row>
-    <row r="21" spans="1:34" ht="11.25" customHeight="1">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-    </row>
-    <row r="22" spans="1:34" ht="11.25" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="O22" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="65" t="s">
+      <c r="AD22" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE22" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="Q22" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="S22" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="T22" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="U22" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="V22" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="W22" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="X22" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y22" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z22" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA22" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB22" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC22" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD22" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE22" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF22" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG22" s="45" t="s">
-        <v>150</v>
-      </c>
       <c r="AH22" s="2"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="44"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="44"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
       <c r="AH24" s="2"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="44"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="44"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="R27" s="45"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
+      <c r="R27" s="47"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
     </row>
     <row r="28" spans="1:34">
       <c r="F28" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="R28" s="47"/>
       <c r="T28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="U28" s="62"/>
       <c r="V28" s="24"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
     </row>
     <row r="29" spans="1:34" ht="236.25">
       <c r="F29" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="20"/>
@@ -5348,24 +5423,25 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="O22:O26"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="W22:W28"/>
-    <mergeCell ref="S22:S26"/>
+    <mergeCell ref="C19:X21"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="M22:M26"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="J22:J26"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="C19:X21"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="Y19:Z21"/>
     <mergeCell ref="AA19:AB21"/>
     <mergeCell ref="AC19:AD21"/>
     <mergeCell ref="T22:T26"/>
     <mergeCell ref="N22:N26"/>
-    <mergeCell ref="F22:F26"/>
     <mergeCell ref="P22:P26"/>
     <mergeCell ref="U22:U28"/>
     <mergeCell ref="Y22:Y28"/>
@@ -5375,9 +5451,8 @@
     <mergeCell ref="X22:X28"/>
     <mergeCell ref="R22:R28"/>
     <mergeCell ref="V22:V27"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="M22:M26"/>
+    <mergeCell ref="W22:W28"/>
+    <mergeCell ref="S22:S26"/>
     <mergeCell ref="AE22:AE26"/>
     <mergeCell ref="AG22:AG26"/>
     <mergeCell ref="AF22:AF26"/>
@@ -5424,55 +5499,55 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="38.25" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E7" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>267</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -5481,31 +5556,31 @@
         <v>0</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5521,31 +5596,31 @@
         <v>0</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5561,31 +5636,31 @@
         <v>0</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5601,31 +5676,31 @@
         <v>0</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>279</v>
-      </c>
       <c r="G11" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5641,31 +5716,31 @@
         <v>0</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R12" s="2"/>
     </row>
@@ -5674,31 +5749,31 @@
         <v>0</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -5707,31 +5782,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="R14" s="2"/>
     </row>
@@ -5740,31 +5815,31 @@
         <v>0</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R15" s="2"/>
     </row>
@@ -5773,31 +5848,31 @@
         <v>0</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="R16" s="2"/>
     </row>
@@ -5806,31 +5881,31 @@
         <v>0</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>279</v>
-      </c>
       <c r="G17" s="36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R17" s="2"/>
     </row>
@@ -5839,130 +5914,130 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="95"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="96"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="80" t="s">
+      <c r="F22" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="89" t="s">
-        <v>310</v>
-      </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="90"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="91"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="I22" s="45" t="s">
+      <c r="J22" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="J22" s="45" t="s">
-        <v>311</v>
-      </c>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
       <c r="R26" s="2"/>
     </row>
   </sheetData>
@@ -5994,9 +6069,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6007,11 +6084,11 @@
     <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" style="2" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
@@ -6025,92 +6102,92 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="A4" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="1"/>
       <c r="O4" s="12"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R7" s="6" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1">
@@ -6118,167 +6195,167 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>0</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="L8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>397</v>
-      </c>
       <c r="M8" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>1</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="L9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>397</v>
-      </c>
       <c r="M9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="36" t="s">
-        <v>404</v>
-      </c>
       <c r="O9" s="36" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="5" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="36" t="s">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>438</v>
+      <c r="K10" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -6286,55 +6363,55 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="11.25" customHeight="1">
@@ -6342,55 +6419,55 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -6398,326 +6475,270 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:29">
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="11.25" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>314</v>
+      </c>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="D17" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="92" t="s">
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A19" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="Q17" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="47" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A20" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="62" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="47"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="L23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="62" t="s">
+      <c r="O23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="45"/>
-    </row>
-    <row r="22" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="45"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="K24" s="17" t="s">
+    </row>
+    <row r="24" spans="1:18" ht="247.5">
+      <c r="L24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="247.5">
-      <c r="K25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
+      <c r="O24" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="G17:O19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D17:F19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="G16:O18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D16:F18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="L19:L21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="M19:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6730,9 +6751,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:AJ30"/>
+  <dimension ref="A2:AJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6747,9 +6770,9 @@
     <col min="9" max="9" width="33.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="64.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="32.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="23" style="2" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6773,32 +6796,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21">
-      <c r="A4" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="A4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6818,163 +6841,218 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:33" s="5" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="U8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="O9" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="123" t="s">
-        <v>445</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="P8" s="36" t="s">
+      <c r="P9" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="R9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8" s="2" t="s">
+      <c r="T9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="5" customFormat="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -6988,28 +7066,72 @@
       <c r="AG9" s="4"/>
     </row>
     <row r="10" spans="1:33" s="5" customFormat="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -7022,350 +7144,423 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33">
-      <c r="U11" s="125" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="U12" s="125" t="s">
-        <v>453</v>
-      </c>
+    <row r="11" spans="1:33" s="5" customFormat="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" s="5" customFormat="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="U13" s="40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="U14" s="40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="11.25" customHeight="1">
+      <c r="B17" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="99" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="110" t="s">
+        <v>463</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>466</v>
+      </c>
+      <c r="N17" s="110"/>
+      <c r="O17" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="U17" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:36" ht="11.25" customHeight="1">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:36" ht="16.5" customHeight="1">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B20" s="80" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="105" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="119" t="s">
-        <v>448</v>
-      </c>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="T20" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="U20" s="61" t="s">
-        <v>325</v>
+      <c r="A20" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="S20" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="T20" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="U20" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="V20" s="62" t="s">
+        <v>203</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
+    <row r="21" spans="1:36">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="62"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" ht="11.25" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
+    <row r="22" spans="1:36">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="62"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" ht="11.25" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="M23" s="45" t="s">
-        <v>450</v>
-      </c>
-      <c r="N23" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="O23" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="P23" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q23" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="R23" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="S23" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="T23" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="V23" s="68" t="s">
-        <v>205</v>
-      </c>
+    <row r="23" spans="1:36">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="62"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="68"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="62"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="68"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="R25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="V25" s="62"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="68"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:36">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="68"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:36">
-      <c r="R28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" spans="1:36">
-      <c r="K29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="26"/>
-      <c r="T29" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" spans="1:36" ht="191.25">
-      <c r="K30" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="U30" s="27" t="s">
-        <v>203</v>
+      <c r="K26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="26"/>
+      <c r="T26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V26" s="62"/>
+    </row>
+    <row r="27" spans="1:36" ht="191.25">
+      <c r="K27" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="O20:R22"/>
-    <mergeCell ref="L20:N22"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
+  <mergeCells count="34">
+    <mergeCell ref="O17:R19"/>
+    <mergeCell ref="R20:R24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="Q20:Q24"/>
+    <mergeCell ref="M17:N19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="V23:V29"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="E20:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="B17:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="V20:V26"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="U20:U24"/>
+    <mergeCell ref="E17:J19"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="S20:S24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="N20:N24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="O20:O24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="L17:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7379,7 +7574,9 @@
   </sheetPr>
   <dimension ref="A2:AG26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -7419,350 +7616,419 @@
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="21">
+      <c r="A4" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="5" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>123</v>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:33" s="5" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" s="5" customFormat="1">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A15" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="96"/>
-      <c r="J15" s="89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="90"/>
+    <row r="15" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A15" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="I15" s="101"/>
+      <c r="J15" s="94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="11.25" customHeight="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="91"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A18" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="A18" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="F18" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="G18" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>474</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>476</v>
-      </c>
-      <c r="J18" s="126" t="s">
-        <v>329</v>
+      <c r="H18" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J18" s="117" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="127"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="127"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="127"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="127"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="127"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="J24" s="127"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="J25" s="127"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="J26" s="128"/>
+      <c r="J26" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7794,7 +8060,9 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -7810,183 +8078,183 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>68</v>
-      </c>
       <c r="D7" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="D8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="36" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1"/>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A19" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="92" t="s">
+      <c r="A19" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="97" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="97"/>
+    </row>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A22" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="56" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="92"/>
-    </row>
-    <row r="21" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="92"/>
-    </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A22" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8008,11 +8276,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -8032,124 +8302,125 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A4" s="106" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="A4" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="L4" s="121" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="L5" s="129" t="s">
-        <v>495</v>
-      </c>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="124" t="s">
-        <v>487</v>
+      <c r="L9" s="122" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1">
@@ -8160,248 +8431,134 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J10" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="122" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A14" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="130" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="11.25" customHeight="1"/>
-    <row r="21" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A21" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="45" t="s">
+      <c r="E14" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="H14" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="I14" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="J14" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="K14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="L14" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
     <mergeCell ref="A4:I5"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
